--- a/siconfi/receitas.xlsx
+++ b/siconfi/receitas.xlsx
@@ -439,10 +439,10 @@
         <v>1094880550.4</v>
       </c>
       <c r="F3">
-        <v>2.875555437848032</v>
+        <v>2.88</v>
       </c>
       <c r="G3">
-        <v>102.875555437848</v>
+        <v>102.88</v>
       </c>
     </row>
     <row r="4">
@@ -466,10 +466,10 @@
         <v>1005871159.94</v>
       </c>
       <c r="F4">
-        <v>-8.129598286085326</v>
+        <v>-8.130000000000001</v>
       </c>
       <c r="G4">
-        <v>94.51218604617198</v>
+        <v>94.51000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -493,10 +493,10 @@
         <v>1214435956.63</v>
       </c>
       <c r="F5">
-        <v>20.73474267842026</v>
+        <v>20.73</v>
       </c>
       <c r="G5">
-        <v>114.1090446225955</v>
+        <v>114.11</v>
       </c>
     </row>
     <row r="6">
@@ -520,10 +520,10 @@
         <v>1393948222.07</v>
       </c>
       <c r="F6">
-        <v>14.78153413195518</v>
+        <v>14.78</v>
       </c>
       <c r="G6">
-        <v>130.9761120011325</v>
+        <v>130.98</v>
       </c>
     </row>
     <row r="7">
@@ -571,10 +571,10 @@
         <v>20269963.24</v>
       </c>
       <c r="F8">
-        <v>164016.3668926408</v>
+        <v>164016.34</v>
       </c>
       <c r="G8">
-        <v>164116.3668926408</v>
+        <v>164116.34</v>
       </c>
     </row>
     <row r="9">
@@ -598,10 +598,10 @@
         <v>36340546.06</v>
       </c>
       <c r="F9">
-        <v>79.2827427939628</v>
+        <v>79.28</v>
       </c>
       <c r="G9">
-        <v>294232.3239389296</v>
+        <v>294232.27</v>
       </c>
     </row>
     <row r="10">
@@ -649,10 +649,10 @@
         <v>9017529314.129999</v>
       </c>
       <c r="F11">
-        <v>-3.738931967944548</v>
+        <v>-3.74</v>
       </c>
       <c r="G11">
-        <v>96.26106803205545</v>
+        <v>96.26000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -676,10 +676,10 @@
         <v>9187242491.5</v>
       </c>
       <c r="F12">
-        <v>1.882036325671477</v>
+        <v>1.88</v>
       </c>
       <c r="G12">
-        <v>98.07273629989807</v>
+        <v>98.06999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -703,10 +703,10 @@
         <v>9622897282.799999</v>
       </c>
       <c r="F13">
-        <v>4.741953765812368</v>
+        <v>4.74</v>
       </c>
       <c r="G13">
-        <v>102.7233001121063</v>
+        <v>102.72</v>
       </c>
     </row>
     <row r="14">
@@ -730,10 +730,10 @@
         <v>10899339134.09</v>
       </c>
       <c r="F14">
-        <v>13.26463136597662</v>
+        <v>13.26</v>
       </c>
       <c r="G14">
-        <v>116.3491671989431</v>
+        <v>116.35</v>
       </c>
     </row>
     <row r="15">
@@ -781,10 +781,10 @@
         <v>1822458463.9</v>
       </c>
       <c r="F16">
-        <v>3.318087650251256</v>
+        <v>3.32</v>
       </c>
       <c r="G16">
-        <v>103.3180876502513</v>
+        <v>103.32</v>
       </c>
     </row>
     <row r="17">
@@ -808,10 +808,10 @@
         <v>1724426905.48</v>
       </c>
       <c r="F17">
-        <v>-5.379083274700037</v>
+        <v>-5.38</v>
       </c>
       <c r="G17">
-        <v>97.76052167771667</v>
+        <v>97.76000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -835,10 +835,10 @@
         <v>2136958473.44</v>
       </c>
       <c r="F18">
-        <v>23.92282135293931</v>
+        <v>23.92</v>
       </c>
       <c r="G18">
-        <v>121.1475966323783</v>
+        <v>121.15</v>
       </c>
     </row>
     <row r="19">
@@ -862,10 +862,10 @@
         <v>2372051238</v>
       </c>
       <c r="F19">
-        <v>11.00127903662798</v>
+        <v>11</v>
       </c>
       <c r="G19">
-        <v>134.4753817840748</v>
+        <v>134.48</v>
       </c>
     </row>
     <row r="20">
@@ -913,10 +913,10 @@
         <v>1500506936.24</v>
       </c>
       <c r="F21">
-        <v>1.239241121635226</v>
+        <v>1.24</v>
       </c>
       <c r="G21">
-        <v>101.2392411216352</v>
+        <v>101.24</v>
       </c>
     </row>
     <row r="22">
@@ -940,10 +940,10 @@
         <v>1492921825.02</v>
       </c>
       <c r="F22">
-        <v>-0.5055032427245476</v>
+        <v>-0.51</v>
       </c>
       <c r="G22">
-        <v>100.7274734748556</v>
+        <v>100.73</v>
       </c>
     </row>
     <row r="23">
@@ -967,10 +967,10 @@
         <v>1646866270.93</v>
       </c>
       <c r="F23">
-        <v>10.31162136757815</v>
+        <v>10.31</v>
       </c>
       <c r="G23">
-        <v>111.1141091527105</v>
+        <v>111.11</v>
       </c>
     </row>
     <row r="24">
@@ -994,10 +994,10 @@
         <v>1820936116.93</v>
       </c>
       <c r="F24">
-        <v>10.56976204277358</v>
+        <v>10.57</v>
       </c>
       <c r="G24">
-        <v>122.8586060860997</v>
+        <v>122.86</v>
       </c>
     </row>
     <row r="25">
@@ -1045,10 +1045,10 @@
         <v>11504810.24</v>
       </c>
       <c r="F26">
-        <v>86.83867077506537</v>
+        <v>86.84</v>
       </c>
       <c r="G26">
-        <v>186.8386707750654</v>
+        <v>186.84</v>
       </c>
     </row>
     <row r="27">
@@ -1072,10 +1072,10 @@
         <v>19827381.11</v>
       </c>
       <c r="F27">
-        <v>72.3399230094559</v>
+        <v>72.34</v>
       </c>
       <c r="G27">
-        <v>321.9976213656385</v>
+        <v>322</v>
       </c>
     </row>
     <row r="28">
@@ -1099,10 +1099,10 @@
         <v>21200905.52</v>
       </c>
       <c r="F28">
-        <v>6.927412159880553</v>
+        <v>6.93</v>
       </c>
       <c r="G28">
-        <v>344.3037237426478</v>
+        <v>344.3</v>
       </c>
     </row>
     <row r="29">
@@ -1126,10 +1126,10 @@
         <v>42879188.06</v>
       </c>
       <c r="F29">
-        <v>102.2516822196565</v>
+        <v>102.25</v>
       </c>
       <c r="G29">
-        <v>696.360073214424</v>
+        <v>696.36</v>
       </c>
     </row>
     <row r="30">
@@ -1177,10 +1177,10 @@
         <v>15351214529.05</v>
       </c>
       <c r="F31">
-        <v>-4.367166369748798</v>
+        <v>-4.37</v>
       </c>
       <c r="G31">
-        <v>95.6328336302512</v>
+        <v>95.63</v>
       </c>
     </row>
     <row r="32">
@@ -1204,10 +1204,10 @@
         <v>16989434210.49</v>
       </c>
       <c r="F32">
-        <v>10.67159655895566</v>
+        <v>10.67</v>
       </c>
       <c r="G32">
-        <v>105.8383838131689</v>
+        <v>105.84</v>
       </c>
     </row>
     <row r="33">
@@ -1231,10 +1231,10 @@
         <v>18398610275.32</v>
       </c>
       <c r="F33">
-        <v>8.294426096661379</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="G33">
-        <v>114.617070340453</v>
+        <v>114.62</v>
       </c>
     </row>
     <row r="34">
@@ -1258,10 +1258,10 @@
         <v>19586366266.59</v>
       </c>
       <c r="F34">
-        <v>6.455683192894535</v>
+        <v>6.46</v>
       </c>
       <c r="G34">
-        <v>122.0163852866097</v>
+        <v>122.02</v>
       </c>
     </row>
     <row r="35">
@@ -1309,10 +1309,10 @@
         <v>993435983.04</v>
       </c>
       <c r="F36">
-        <v>4.414238326324726</v>
+        <v>4.41</v>
       </c>
       <c r="G36">
-        <v>104.4142383263247</v>
+        <v>104.41</v>
       </c>
     </row>
     <row r="37">
@@ -1336,10 +1336,10 @@
         <v>936314851.16</v>
       </c>
       <c r="F37">
-        <v>-5.749855335942677</v>
+        <v>-5.75</v>
       </c>
       <c r="G37">
-        <v>98.41057067243464</v>
+        <v>98.41</v>
       </c>
     </row>
     <row r="38">
@@ -1363,10 +1363,10 @@
         <v>1149644663.77</v>
       </c>
       <c r="F38">
-        <v>22.78398258296404</v>
+        <v>22.78</v>
       </c>
       <c r="G38">
-        <v>120.8324179542377</v>
+        <v>120.83</v>
       </c>
     </row>
     <row r="39">
@@ -1390,10 +1390,10 @@
         <v>1332088560.84</v>
       </c>
       <c r="F39">
-        <v>15.86959021509449</v>
+        <v>15.87</v>
       </c>
       <c r="G39">
-        <v>140.0080275305654</v>
+        <v>140.01</v>
       </c>
     </row>
     <row r="40">
@@ -1441,10 +1441,10 @@
         <v>335467219.95</v>
       </c>
       <c r="F41">
-        <v>5.447345446176888</v>
+        <v>5.45</v>
       </c>
       <c r="G41">
-        <v>105.4473454461769</v>
+        <v>105.45</v>
       </c>
     </row>
     <row r="42">
@@ -1468,10 +1468,10 @@
         <v>341601629.09</v>
       </c>
       <c r="F42">
-        <v>1.828616560781793</v>
+        <v>1.83</v>
       </c>
       <c r="G42">
-        <v>107.3755730679105</v>
+        <v>107.38</v>
       </c>
     </row>
     <row r="43">
@@ -1495,10 +1495,10 @@
         <v>388613136.8</v>
       </c>
       <c r="F43">
-        <v>13.76208533760071</v>
+        <v>13.76</v>
       </c>
       <c r="G43">
-        <v>122.1526910652541</v>
+        <v>122.15</v>
       </c>
     </row>
     <row r="44">
@@ -1522,10 +1522,10 @@
         <v>398943738.12</v>
       </c>
       <c r="F44">
-        <v>2.658325296222985</v>
+        <v>2.66</v>
       </c>
       <c r="G44">
-        <v>125.3999069518589</v>
+        <v>125.4</v>
       </c>
     </row>
     <row r="45">
@@ -1573,10 +1573,10 @@
         <v>74812.7</v>
       </c>
       <c r="F46">
-        <v>1.98005374308905</v>
+        <v>1.98</v>
       </c>
       <c r="G46">
-        <v>101.980053743089</v>
+        <v>101.98</v>
       </c>
     </row>
     <row r="47">
@@ -1600,10 +1600,10 @@
         <v>101445.96</v>
       </c>
       <c r="F47">
-        <v>35.59991819570742</v>
+        <v>35.6</v>
       </c>
       <c r="G47">
-        <v>138.2848694515672</v>
+        <v>138.28</v>
       </c>
     </row>
     <row r="48">
@@ -1651,10 +1651,10 @@
         <v>8457435181.18</v>
       </c>
       <c r="F49">
-        <v>11.6936297294562</v>
+        <v>11.69</v>
       </c>
       <c r="G49">
-        <v>111.6936297294562</v>
+        <v>111.69</v>
       </c>
     </row>
     <row r="50">
@@ -1678,10 +1678,10 @@
         <v>9125592535.73</v>
       </c>
       <c r="F50">
-        <v>7.900236185514298</v>
+        <v>7.9</v>
       </c>
       <c r="G50">
-        <v>120.517690282257</v>
+        <v>120.52</v>
       </c>
     </row>
     <row r="51">
@@ -1705,10 +1705,10 @@
         <v>9384285766.139999</v>
       </c>
       <c r="F51">
-        <v>2.834810226263351</v>
+        <v>2.83</v>
       </c>
       <c r="G51">
-        <v>123.9341380908349</v>
+        <v>123.93</v>
       </c>
     </row>
     <row r="52">
@@ -1732,10 +1732,10 @@
         <v>10678851204.06</v>
       </c>
       <c r="F52">
-        <v>13.79503427518158</v>
+        <v>13.8</v>
       </c>
       <c r="G52">
-        <v>141.0308949191164</v>
+        <v>141.03</v>
       </c>
     </row>
     <row r="53">
@@ -1783,10 +1783,10 @@
         <v>2590881149.55</v>
       </c>
       <c r="F54">
-        <v>4.3533859259695</v>
+        <v>4.35</v>
       </c>
       <c r="G54">
-        <v>104.3533859259695</v>
+        <v>104.35</v>
       </c>
     </row>
     <row r="55">
@@ -1810,10 +1810,10 @@
         <v>2587874248.05</v>
       </c>
       <c r="F55">
-        <v>-0.1160570989727661</v>
+        <v>-0.12</v>
       </c>
       <c r="G55">
-        <v>104.232276413584</v>
+        <v>104.23</v>
       </c>
     </row>
     <row r="56">
@@ -1837,10 +1837,10 @@
         <v>2967063105.23</v>
       </c>
       <c r="F56">
-        <v>14.65252252754259</v>
+        <v>14.65</v>
       </c>
       <c r="G56">
-        <v>119.5049341960548</v>
+        <v>119.5</v>
       </c>
     </row>
     <row r="57">
@@ -1864,10 +1864,10 @@
         <v>3213847999.71</v>
       </c>
       <c r="F57">
-        <v>8.317480475726846</v>
+        <v>8.32</v>
       </c>
       <c r="G57">
-        <v>129.4447337653419</v>
+        <v>129.44</v>
       </c>
     </row>
     <row r="58">
@@ -1939,10 +1939,10 @@
         <v>26846014193.14</v>
       </c>
       <c r="F60">
-        <v>5.888724174931315</v>
+        <v>5.89</v>
       </c>
       <c r="G60">
-        <v>105.8887241749313</v>
+        <v>105.89</v>
       </c>
     </row>
     <row r="61">
@@ -1966,10 +1966,10 @@
         <v>29224815608.57</v>
       </c>
       <c r="F61">
-        <v>8.86091096546413</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="G61">
-        <v>115.2714297465379</v>
+        <v>115.27</v>
       </c>
     </row>
     <row r="62">
@@ -1993,10 +1993,10 @@
         <v>30103628524.07</v>
       </c>
       <c r="F62">
-        <v>3.007077708446837</v>
+        <v>3.01</v>
       </c>
       <c r="G62">
-        <v>118.737731214654</v>
+        <v>118.74</v>
       </c>
     </row>
     <row r="63">
@@ -2020,10 +2020,10 @@
         <v>32579152459.06</v>
       </c>
       <c r="F63">
-        <v>8.223340694662905</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="G63">
-        <v>128.5019393855481</v>
+        <v>128.5</v>
       </c>
     </row>
     <row r="64">
@@ -2071,10 +2071,10 @@
         <v>6823900283.11</v>
       </c>
       <c r="F65">
-        <v>2.051361907733229</v>
+        <v>2.05</v>
       </c>
       <c r="G65">
-        <v>102.0513619077332</v>
+        <v>102.05</v>
       </c>
     </row>
     <row r="66">
@@ -2098,10 +2098,10 @@
         <v>6620035183.75</v>
       </c>
       <c r="F66">
-        <v>-2.987515803309593</v>
+        <v>-2.99</v>
       </c>
       <c r="G66">
-        <v>99.00256134324704</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67">
@@ -2125,10 +2125,10 @@
         <v>7713874989.88</v>
       </c>
       <c r="F67">
-        <v>16.52317209453835</v>
+        <v>16.52</v>
       </c>
       <c r="G67">
-        <v>115.3609249319926</v>
+        <v>115.36</v>
       </c>
     </row>
     <row r="68">
@@ -2152,10 +2152,10 @@
         <v>8165451081.33</v>
       </c>
       <c r="F68">
-        <v>5.854075831439221</v>
+        <v>5.85</v>
       </c>
       <c r="G68">
-        <v>122.1142409573612</v>
+        <v>122.11</v>
       </c>
     </row>
     <row r="69">
@@ -2203,10 +2203,10 @@
         <v>3308015.15</v>
       </c>
       <c r="F70">
-        <v>-98.2945170243067</v>
+        <v>-98.29000000000001</v>
       </c>
       <c r="G70">
-        <v>1.705482975693295</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="71">
@@ -2254,10 +2254,10 @@
         <v>183313069.19</v>
       </c>
       <c r="F72">
-        <v>287.7186768505156</v>
+        <v>287.72</v>
       </c>
       <c r="G72">
-        <v>387.7186768505156</v>
+        <v>387.72</v>
       </c>
     </row>
     <row r="73">
@@ -2281,10 +2281,10 @@
         <v>195806939.17</v>
       </c>
       <c r="F73">
-        <v>6.815591509763208</v>
+        <v>6.82</v>
       </c>
       <c r="G73">
-        <v>414.1439980717056</v>
+        <v>414.14</v>
       </c>
     </row>
     <row r="74">
@@ -2308,10 +2308,10 @@
         <v>29319743.82</v>
       </c>
       <c r="F74">
-        <v>-85.0261977720082</v>
+        <v>-85.03</v>
       </c>
       <c r="G74">
-        <v>62.01310321035535</v>
+        <v>62.01</v>
       </c>
     </row>
     <row r="75">
@@ -2335,10 +2335,10 @@
         <v>38989721.63</v>
       </c>
       <c r="F75">
-        <v>32.98111289568559</v>
+        <v>32.98</v>
       </c>
       <c r="G75">
-        <v>82.46571479028067</v>
+        <v>82.47</v>
       </c>
     </row>
     <row r="76">
@@ -2386,10 +2386,10 @@
         <v>66514166781.94</v>
       </c>
       <c r="F77">
-        <v>2.079669883440594</v>
+        <v>2.08</v>
       </c>
       <c r="G77">
-        <v>102.0796698834406</v>
+        <v>102.08</v>
       </c>
     </row>
     <row r="78">
@@ -2413,10 +2413,10 @@
         <v>66404378167.2</v>
       </c>
       <c r="F78">
-        <v>-0.1650604977131209</v>
+        <v>-0.17</v>
       </c>
       <c r="G78">
-        <v>101.9111766722671</v>
+        <v>101.91</v>
       </c>
     </row>
     <row r="79">
@@ -2440,10 +2440,10 @@
         <v>71949824463.17999</v>
       </c>
       <c r="F79">
-        <v>8.351025111653154</v>
+        <v>8.35</v>
       </c>
       <c r="G79">
-        <v>110.4218046277493</v>
+        <v>110.42</v>
       </c>
     </row>
     <row r="80">
@@ -2467,10 +2467,10 @@
         <v>79871450541.22</v>
       </c>
       <c r="F80">
-        <v>11.00993106952453</v>
+        <v>11.01</v>
       </c>
       <c r="G80">
-        <v>122.5791692029895</v>
+        <v>122.58</v>
       </c>
     </row>
     <row r="81">
@@ -2518,10 +2518,10 @@
         <v>4294980919.4</v>
       </c>
       <c r="F82">
-        <v>7.125323756866275</v>
+        <v>7.13</v>
       </c>
       <c r="G82">
-        <v>107.1253237568663</v>
+        <v>107.13</v>
       </c>
     </row>
     <row r="83">
@@ -2545,10 +2545,10 @@
         <v>3925187454.68</v>
       </c>
       <c r="F83">
-        <v>-8.609897730853234</v>
+        <v>-8.609999999999999</v>
       </c>
       <c r="G83">
-        <v>97.90194293755467</v>
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="84">
@@ -2572,10 +2572,10 @@
         <v>4640452496.68</v>
       </c>
       <c r="F84">
-        <v>18.22244288351605</v>
+        <v>18.22</v>
       </c>
       <c r="G84">
-        <v>115.742068571203</v>
+        <v>115.74</v>
       </c>
     </row>
     <row r="85">
@@ -2599,10 +2599,10 @@
         <v>5030586963.26</v>
       </c>
       <c r="F85">
-        <v>8.40725051833029</v>
+        <v>8.41</v>
       </c>
       <c r="G85">
-        <v>125.4727942310817</v>
+        <v>125.47</v>
       </c>
     </row>
     <row r="86">
@@ -2650,10 +2650,10 @@
         <v>4451600383.94</v>
       </c>
       <c r="F87">
-        <v>4.95118577502438</v>
+        <v>4.95</v>
       </c>
       <c r="G87">
-        <v>104.9511857750244</v>
+        <v>104.95</v>
       </c>
     </row>
     <row r="88">
@@ -2677,10 +2677,10 @@
         <v>4867306106.57</v>
       </c>
       <c r="F88">
-        <v>9.338343219884205</v>
+        <v>9.34</v>
       </c>
       <c r="G88">
-        <v>114.7518877160344</v>
+        <v>114.75</v>
       </c>
     </row>
     <row r="89">
@@ -2728,10 +2728,10 @@
         <v>322267487.35</v>
       </c>
       <c r="F90">
-        <v>417.0974132453585</v>
+        <v>417.1</v>
       </c>
       <c r="G90">
-        <v>517.0974132453586</v>
+        <v>517.1</v>
       </c>
     </row>
     <row r="91">
@@ -2755,10 +2755,10 @@
         <v>275816041.64</v>
       </c>
       <c r="F91">
-        <v>-14.41394106863508</v>
+        <v>-14.41</v>
       </c>
       <c r="G91">
-        <v>442.5632968327361</v>
+        <v>442.56</v>
       </c>
     </row>
     <row r="92">
@@ -2782,10 +2782,10 @@
         <v>372221295.71</v>
       </c>
       <c r="F92">
-        <v>34.95273643141825</v>
+        <v>34.95</v>
       </c>
       <c r="G92">
-        <v>597.2512795168775</v>
+        <v>597.25</v>
       </c>
     </row>
     <row r="93">
@@ -2809,10 +2809,10 @@
         <v>373134903.78</v>
       </c>
       <c r="F93">
-        <v>0.2454475551317614</v>
+        <v>0.25</v>
       </c>
       <c r="G93">
-        <v>598.7172181804449</v>
+        <v>598.72</v>
       </c>
     </row>
     <row r="94">
@@ -2860,10 +2860,10 @@
         <v>39672709028.91</v>
       </c>
       <c r="F95">
-        <v>5.925429603583621</v>
+        <v>5.93</v>
       </c>
       <c r="G95">
-        <v>105.9254296035836</v>
+        <v>105.93</v>
       </c>
     </row>
     <row r="96">
@@ -2887,10 +2887,10 @@
         <v>39135201357.11</v>
       </c>
       <c r="F96">
-        <v>-1.354854974507325</v>
+        <v>-1.35</v>
       </c>
       <c r="G96">
-        <v>104.4902936513312</v>
+        <v>104.49</v>
       </c>
     </row>
     <row r="97">
@@ -2914,10 +2914,10 @@
         <v>41187318018.4</v>
       </c>
       <c r="F97">
-        <v>5.243659391360644</v>
+        <v>5.24</v>
       </c>
       <c r="G97">
-        <v>109.9694087474396</v>
+        <v>109.97</v>
       </c>
     </row>
     <row r="98">
@@ -2941,10 +2941,10 @@
         <v>45213878745.27</v>
       </c>
       <c r="F98">
-        <v>9.776214914190739</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="G98">
-        <v>120.7202544864541</v>
+        <v>120.72</v>
       </c>
     </row>
     <row r="99">
@@ -2992,10 +2992,10 @@
         <v>2590770726.5</v>
       </c>
       <c r="F100">
-        <v>-17.56429482059785</v>
+        <v>-17.56</v>
       </c>
       <c r="G100">
-        <v>82.43570517940215</v>
+        <v>82.44</v>
       </c>
     </row>
     <row r="101">
@@ -3019,10 +3019,10 @@
         <v>2765021147.69</v>
       </c>
       <c r="F101">
-        <v>6.725814037022237</v>
+        <v>6.73</v>
       </c>
       <c r="G101">
-        <v>87.98017740987665</v>
+        <v>87.98</v>
       </c>
     </row>
     <row r="102">
@@ -3046,10 +3046,10 @@
         <v>2671811821.6</v>
       </c>
       <c r="F102">
-        <v>-3.371016752181832</v>
+        <v>-3.37</v>
       </c>
       <c r="G102">
-        <v>85.01435089079041</v>
+        <v>85.01000000000001</v>
       </c>
     </row>
     <row r="103">
@@ -3073,10 +3073,10 @@
         <v>2933586076.39</v>
       </c>
       <c r="F103">
-        <v>9.797630681686176</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G103">
-        <v>93.34374301750283</v>
+        <v>93.34</v>
       </c>
     </row>
     <row r="104">
@@ -3124,10 +3124,10 @@
         <v>162363843.33</v>
       </c>
       <c r="F105">
-        <v>-0.3546907247192199</v>
+        <v>-0.35</v>
       </c>
       <c r="G105">
-        <v>99.64530927528078</v>
+        <v>99.65000000000001</v>
       </c>
     </row>
     <row r="106">
@@ -3151,10 +3151,10 @@
         <v>153841376.02</v>
       </c>
       <c r="F106">
-        <v>-5.248993332018093</v>
+        <v>-5.25</v>
       </c>
       <c r="G106">
-        <v>94.41493363575249</v>
+        <v>94.41</v>
       </c>
     </row>
     <row r="107">
@@ -3178,10 +3178,10 @@
         <v>96046094.83</v>
       </c>
       <c r="F107">
-        <v>-37.56809948351372</v>
+        <v>-37.57</v>
       </c>
       <c r="G107">
-        <v>58.94503744017954</v>
+        <v>58.95</v>
       </c>
     </row>
     <row r="108">
@@ -3205,10 +3205,10 @@
         <v>120632985.08</v>
       </c>
       <c r="F108">
-        <v>25.59905251069123</v>
+        <v>25.6</v>
       </c>
       <c r="G108">
-        <v>74.0344085269377</v>
+        <v>74.03</v>
       </c>
     </row>
     <row r="109">
@@ -3256,10 +3256,10 @@
         <v>33330578682.35</v>
       </c>
       <c r="F110">
-        <v>-4.084757635165848</v>
+        <v>-4.08</v>
       </c>
       <c r="G110">
-        <v>95.91524236483416</v>
+        <v>95.92</v>
       </c>
     </row>
     <row r="111">
@@ -3283,10 +3283,10 @@
         <v>34115663859.21</v>
       </c>
       <c r="F111">
-        <v>2.355450183874952</v>
+        <v>2.36</v>
       </c>
       <c r="G111">
-        <v>98.17447811748075</v>
+        <v>98.17</v>
       </c>
     </row>
     <row r="112">
@@ -3310,10 +3310,10 @@
         <v>35377149180.42</v>
       </c>
       <c r="F112">
-        <v>3.697671915211598</v>
+        <v>3.7</v>
       </c>
       <c r="G112">
-        <v>101.8046482227364</v>
+        <v>101.8</v>
       </c>
     </row>
     <row r="113">
@@ -3337,10 +3337,10 @@
         <v>36925201302.35</v>
       </c>
       <c r="F113">
-        <v>4.375853221058268</v>
+        <v>4.38</v>
       </c>
       <c r="G113">
-        <v>106.259470201178</v>
+        <v>106.26</v>
       </c>
     </row>
     <row r="114">
@@ -3388,10 +3388,10 @@
         <v>2595023074.39</v>
       </c>
       <c r="F115">
-        <v>6.030098899044889</v>
+        <v>6.03</v>
       </c>
       <c r="G115">
-        <v>106.0300988990449</v>
+        <v>106.03</v>
       </c>
     </row>
     <row r="116">
@@ -3415,10 +3415,10 @@
         <v>2557479589.58</v>
       </c>
       <c r="F116">
-        <v>-1.446749556121962</v>
+        <v>-1.45</v>
       </c>
       <c r="G116">
-        <v>104.4961089138673</v>
+        <v>104.5</v>
       </c>
     </row>
     <row r="117">
@@ -3442,10 +3442,10 @@
         <v>3008685889.92</v>
       </c>
       <c r="F117">
-        <v>17.64261588551326</v>
+        <v>17.64</v>
       </c>
       <c r="G117">
-        <v>122.9319560248485</v>
+        <v>122.93</v>
       </c>
     </row>
     <row r="118">
@@ -3469,10 +3469,10 @@
         <v>3182705412.47</v>
       </c>
       <c r="F118">
-        <v>5.783904632019499</v>
+        <v>5.78</v>
       </c>
       <c r="G118">
-        <v>130.0422231236018</v>
+        <v>130.04</v>
       </c>
     </row>
     <row r="119">
@@ -3520,10 +3520,10 @@
         <v>4037869059.69</v>
       </c>
       <c r="F120">
-        <v>5.440996315646496</v>
+        <v>5.44</v>
       </c>
       <c r="G120">
-        <v>105.4409963156465</v>
+        <v>105.44</v>
       </c>
     </row>
     <row r="121">
@@ -3547,10 +3547,10 @@
         <v>3984809937.09</v>
       </c>
       <c r="F121">
-        <v>-1.314037721769845</v>
+        <v>-1.31</v>
       </c>
       <c r="G121">
-        <v>104.055461849849</v>
+        <v>104.06</v>
       </c>
     </row>
     <row r="122">
@@ -3574,10 +3574,10 @@
         <v>4603914554.71</v>
       </c>
       <c r="F122">
-        <v>15.53661598405156</v>
+        <v>15.54</v>
       </c>
       <c r="G122">
-        <v>120.2221593678913</v>
+        <v>120.22</v>
       </c>
     </row>
     <row r="123">
@@ -3601,10 +3601,10 @@
         <v>4761922962.29</v>
       </c>
       <c r="F123">
-        <v>3.432044745885876</v>
+        <v>3.43</v>
       </c>
       <c r="G123">
-        <v>124.3482376718675</v>
+        <v>124.35</v>
       </c>
     </row>
     <row r="124">
@@ -3652,10 +3652,10 @@
         <v>62574383.29</v>
       </c>
       <c r="F125">
-        <v>-22.23492636772472</v>
+        <v>-22.23</v>
       </c>
       <c r="G125">
-        <v>77.76507363227529</v>
+        <v>77.77</v>
       </c>
     </row>
     <row r="126">
@@ -3679,10 +3679,10 @@
         <v>171022628.46</v>
       </c>
       <c r="F126">
-        <v>173.3109292781973</v>
+        <v>173.31</v>
       </c>
       <c r="G126">
-        <v>212.540445398246</v>
+        <v>212.54</v>
       </c>
     </row>
     <row r="127">
@@ -3706,10 +3706,10 @@
         <v>145382452.91</v>
       </c>
       <c r="F127">
-        <v>-14.9922707777801</v>
+        <v>-14.99</v>
       </c>
       <c r="G127">
-        <v>180.6758063118411</v>
+        <v>180.68</v>
       </c>
     </row>
     <row r="128">
@@ -3733,10 +3733,10 @@
         <v>25649131.77</v>
       </c>
       <c r="F128">
-        <v>-82.35747763460954</v>
+        <v>-82.36</v>
       </c>
       <c r="G128">
-        <v>31.87576953741612</v>
+        <v>31.88</v>
       </c>
     </row>
     <row r="129">
@@ -3784,10 +3784,10 @@
         <v>30382171203.56</v>
       </c>
       <c r="F130">
-        <v>10.7843759741681</v>
+        <v>10.78</v>
       </c>
       <c r="G130">
-        <v>110.7843759741681</v>
+        <v>110.78</v>
       </c>
     </row>
     <row r="131">
@@ -3811,10 +3811,10 @@
         <v>28555587483.68</v>
       </c>
       <c r="F131">
-        <v>-6.012024972283658</v>
+        <v>-6.01</v>
       </c>
       <c r="G131">
-        <v>104.1239916252125</v>
+        <v>104.12</v>
       </c>
     </row>
     <row r="132">
@@ -3838,10 +3838,10 @@
         <v>28983805132.78</v>
       </c>
       <c r="F132">
-        <v>1.499593203413285</v>
+        <v>1.5</v>
       </c>
       <c r="G132">
-        <v>105.6854279267468</v>
+        <v>105.69</v>
       </c>
     </row>
     <row r="133">
@@ -3865,10 +3865,10 @@
         <v>31992142105.37</v>
       </c>
       <c r="F133">
-        <v>10.37937206246133</v>
+        <v>10.38</v>
       </c>
       <c r="G133">
-        <v>116.6549117070683</v>
+        <v>116.65</v>
       </c>
     </row>
     <row r="134">
@@ -3916,10 +3916,10 @@
         <v>3872213614.19</v>
       </c>
       <c r="F135">
-        <v>2.452835436144052</v>
+        <v>2.45</v>
       </c>
       <c r="G135">
-        <v>102.4528354361441</v>
+        <v>102.45</v>
       </c>
     </row>
     <row r="136">
@@ -3943,10 +3943,10 @@
         <v>4337287652.37</v>
       </c>
       <c r="F136">
-        <v>12.01054705442135</v>
+        <v>12.01</v>
       </c>
       <c r="G136">
-        <v>114.757981444791</v>
+        <v>114.76</v>
       </c>
     </row>
     <row r="137">
@@ -3970,10 +3970,10 @@
         <v>4912575462.74</v>
       </c>
       <c r="F137">
-        <v>13.26376889150178</v>
+        <v>13.26</v>
       </c>
       <c r="G137">
-        <v>129.9792148881806</v>
+        <v>129.98</v>
       </c>
     </row>
     <row r="138">
@@ -3997,10 +3997,10 @@
         <v>5107432935.38</v>
       </c>
       <c r="F138">
-        <v>3.966503397615351</v>
+        <v>3.97</v>
       </c>
       <c r="G138">
-        <v>135.134844862914</v>
+        <v>135.13</v>
       </c>
     </row>
     <row r="139">
@@ -4048,10 +4048,10 @@
         <v>5867697276.59</v>
       </c>
       <c r="F140">
-        <v>3.470779142621927</v>
+        <v>3.47</v>
       </c>
       <c r="G140">
-        <v>103.4707791426219</v>
+        <v>103.47</v>
       </c>
     </row>
     <row r="141">
@@ -4075,10 +4075,10 @@
         <v>5867883845.11</v>
       </c>
       <c r="F141">
-        <v>0.003179586662449552</v>
+        <v>0</v>
       </c>
       <c r="G141">
-        <v>103.4740690857151</v>
+        <v>103.47</v>
       </c>
     </row>
     <row r="142">
@@ -4102,10 +4102,10 @@
         <v>6785653498.92</v>
       </c>
       <c r="F142">
-        <v>15.64055591480093</v>
+        <v>15.64</v>
       </c>
       <c r="G142">
-        <v>119.6579887183861</v>
+        <v>119.66</v>
       </c>
     </row>
     <row r="143">
@@ -4129,10 +4129,10 @@
         <v>7107399388.25</v>
       </c>
       <c r="F143">
-        <v>4.741560844231274</v>
+        <v>4.74</v>
       </c>
       <c r="G143">
-        <v>125.3316450584518</v>
+        <v>125.33</v>
       </c>
     </row>
     <row r="144">
@@ -4180,10 +4180,10 @@
         <v>11313960837.76</v>
       </c>
       <c r="F145">
-        <v>-3.412698692570382</v>
+        <v>-3.41</v>
       </c>
       <c r="G145">
-        <v>96.58730130742961</v>
+        <v>96.59</v>
       </c>
     </row>
     <row r="146">
@@ -4207,10 +4207,10 @@
         <v>12086573062.92</v>
       </c>
       <c r="F146">
-        <v>6.828839486357685</v>
+        <v>6.83</v>
       </c>
       <c r="G146">
-        <v>103.1830930779186</v>
+        <v>103.18</v>
       </c>
     </row>
     <row r="147">
@@ -4234,10 +4234,10 @@
         <v>2748016540.07</v>
       </c>
       <c r="F147">
-        <v>-77.26389005581285</v>
+        <v>-77.26000000000001</v>
       </c>
       <c r="G147">
-        <v>23.45982148600854</v>
+        <v>23.46</v>
       </c>
     </row>
     <row r="148">
@@ -4261,10 +4261,10 @@
         <v>2947096313.14</v>
       </c>
       <c r="F148">
-        <v>7.244489622501638</v>
+        <v>7.24</v>
       </c>
       <c r="G148">
-        <v>25.15936581901984</v>
+        <v>25.16</v>
       </c>
     </row>
     <row r="149">
@@ -4312,10 +4312,10 @@
         <v>57556674112.17</v>
       </c>
       <c r="F150">
-        <v>10.22373934676257</v>
+        <v>10.22</v>
       </c>
       <c r="G150">
-        <v>110.2237393467626</v>
+        <v>110.22</v>
       </c>
     </row>
     <row r="151">
@@ -4339,10 +4339,10 @@
         <v>56596008332.54</v>
       </c>
       <c r="F151">
-        <v>-1.669077990430423</v>
+        <v>-1.67</v>
       </c>
       <c r="G151">
-        <v>108.3840191730964</v>
+        <v>108.38</v>
       </c>
     </row>
     <row r="152">
@@ -4366,10 +4366,10 @@
         <v>51308353869.19</v>
       </c>
       <c r="F152">
-        <v>-9.342804588410969</v>
+        <v>-9.34</v>
       </c>
       <c r="G152">
-        <v>98.25791205668808</v>
+        <v>98.26000000000001</v>
       </c>
     </row>
     <row r="153">
@@ -4393,10 +4393,10 @@
         <v>58661440097.89</v>
       </c>
       <c r="F153">
-        <v>14.33116768362244</v>
+        <v>14.33</v>
       </c>
       <c r="G153">
-        <v>112.3394181959583</v>
+        <v>112.34</v>
       </c>
     </row>
     <row r="154">
@@ -4444,10 +4444,10 @@
         <v>3098948852.14</v>
       </c>
       <c r="F155">
-        <v>4.3399854645229</v>
+        <v>4.34</v>
       </c>
       <c r="G155">
-        <v>104.3399854645229</v>
+        <v>104.34</v>
       </c>
     </row>
     <row r="156">
@@ -4471,10 +4471,10 @@
         <v>2932906358.58</v>
       </c>
       <c r="F156">
-        <v>-5.35802626898273</v>
+        <v>-5.36</v>
       </c>
       <c r="G156">
-        <v>98.74942163428099</v>
+        <v>98.75</v>
       </c>
     </row>
     <row r="157">
@@ -4498,10 +4498,10 @@
         <v>3485259538.53</v>
       </c>
       <c r="F157">
-        <v>18.83296336189295</v>
+        <v>18.83</v>
       </c>
       <c r="G157">
-        <v>117.3468640307463</v>
+        <v>117.35</v>
       </c>
     </row>
     <row r="158">
@@ -4525,10 +4525,10 @@
         <v>4056978912.56</v>
       </c>
       <c r="F158">
-        <v>16.40392538086668</v>
+        <v>16.4</v>
       </c>
       <c r="G158">
-        <v>136.596356043137</v>
+        <v>136.6</v>
       </c>
     </row>
     <row r="159">
@@ -4576,10 +4576,10 @@
         <v>2473497706.43</v>
       </c>
       <c r="F160">
-        <v>5.732787485114788</v>
+        <v>5.73</v>
       </c>
       <c r="G160">
-        <v>105.7327874851148</v>
+        <v>105.73</v>
       </c>
     </row>
     <row r="161">
@@ -4603,10 +4603,10 @@
         <v>2449185021.74</v>
       </c>
       <c r="F161">
-        <v>-0.9829273189458698</v>
+        <v>-0.98</v>
       </c>
       <c r="G161">
-        <v>104.6935110318406</v>
+        <v>104.69</v>
       </c>
     </row>
     <row r="162">
@@ -4630,10 +4630,10 @@
         <v>2687837171.22</v>
       </c>
       <c r="F162">
-        <v>9.744145393738023</v>
+        <v>9.74</v>
       </c>
       <c r="G162">
-        <v>114.8949989645923</v>
+        <v>114.89</v>
       </c>
     </row>
     <row r="163">
@@ -4657,10 +4657,10 @@
         <v>3081003768.53</v>
       </c>
       <c r="F163">
-        <v>14.62761961624124</v>
+        <v>14.63</v>
       </c>
       <c r="G163">
-        <v>131.7014023712172</v>
+        <v>131.7</v>
       </c>
     </row>
     <row r="164">
@@ -4708,10 +4708,10 @@
         <v>3873805.94</v>
       </c>
       <c r="F165">
-        <v>-31.8807455354516</v>
+        <v>-31.88</v>
       </c>
       <c r="G165">
-        <v>68.1192544645484</v>
+        <v>68.12</v>
       </c>
     </row>
     <row r="166">
@@ -4735,10 +4735,10 @@
         <v>2626625.08</v>
       </c>
       <c r="F166">
-        <v>-32.19523330071614</v>
+        <v>-32.2</v>
       </c>
       <c r="G166">
-        <v>46.18810156697855</v>
+        <v>46.19</v>
       </c>
     </row>
     <row r="167">
@@ -4762,10 +4762,10 @@
         <v>4976043.86</v>
       </c>
       <c r="F167">
-        <v>89.44629356847533</v>
+        <v>89.45</v>
       </c>
       <c r="G167">
-        <v>87.50164648828374</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="168">
@@ -4789,10 +4789,10 @@
         <v>6624266.94</v>
       </c>
       <c r="F168">
-        <v>33.12316222228797</v>
+        <v>33.12</v>
       </c>
       <c r="G168">
-        <v>116.4849588017709</v>
+        <v>116.48</v>
       </c>
     </row>
     <row r="169">
@@ -4840,10 +4840,10 @@
         <v>25820084370.95</v>
       </c>
       <c r="F170">
-        <v>2.106661002936372</v>
+        <v>2.11</v>
       </c>
       <c r="G170">
-        <v>102.1066610029364</v>
+        <v>102.11</v>
       </c>
     </row>
     <row r="171">
@@ -4867,10 +4867,10 @@
         <v>26619148289.06</v>
       </c>
       <c r="F171">
-        <v>3.094737827460481</v>
+        <v>3.09</v>
       </c>
       <c r="G171">
-        <v>105.2665944653511</v>
+        <v>105.27</v>
       </c>
     </row>
     <row r="172">
@@ -4894,10 +4894,10 @@
         <v>27530473604.73</v>
       </c>
       <c r="F172">
-        <v>3.423570528154496</v>
+        <v>3.42</v>
       </c>
       <c r="G172">
-        <v>108.8704705694588</v>
+        <v>108.87</v>
       </c>
     </row>
     <row r="173">
@@ -4921,10 +4921,10 @@
         <v>31570291647.36</v>
       </c>
       <c r="F173">
-        <v>14.67398672696978</v>
+        <v>14.67</v>
       </c>
       <c r="G173">
-        <v>124.8461089704107</v>
+        <v>124.85</v>
       </c>
     </row>
     <row r="174">
@@ -4972,10 +4972,10 @@
         <v>2756762578.22</v>
       </c>
       <c r="F175">
-        <v>3.809989691949345</v>
+        <v>3.81</v>
       </c>
       <c r="G175">
-        <v>103.8099896919493</v>
+        <v>103.81</v>
       </c>
     </row>
     <row r="176">
@@ -4999,10 +4999,10 @@
         <v>2874612817.24</v>
       </c>
       <c r="F176">
-        <v>4.274950623281248</v>
+        <v>4.27</v>
       </c>
       <c r="G176">
-        <v>108.2478154933135</v>
+        <v>108.25</v>
       </c>
     </row>
     <row r="177">
@@ -5026,10 +5026,10 @@
         <v>3731919430.51</v>
       </c>
       <c r="F177">
-        <v>29.82337684325522</v>
+        <v>29.82</v>
       </c>
       <c r="G177">
-        <v>140.530969432476</v>
+        <v>140.53</v>
       </c>
     </row>
     <row r="178">
@@ -5053,10 +5053,10 @@
         <v>3865073487.39</v>
       </c>
       <c r="F178">
-        <v>3.567977802291478</v>
+        <v>3.57</v>
       </c>
       <c r="G178">
-        <v>145.5450832271718</v>
+        <v>145.55</v>
       </c>
     </row>
     <row r="179">
@@ -5104,10 +5104,10 @@
         <v>4224870766</v>
       </c>
       <c r="F180">
-        <v>4.013530122056941</v>
+        <v>4.01</v>
       </c>
       <c r="G180">
-        <v>104.0135301220569</v>
+        <v>104.01</v>
       </c>
     </row>
     <row r="181">
@@ -5131,10 +5131,10 @@
         <v>4481615569.5</v>
       </c>
       <c r="F181">
-        <v>6.076985965255433</v>
+        <v>6.08</v>
       </c>
       <c r="G181">
-        <v>110.3344177495411</v>
+        <v>110.33</v>
       </c>
     </row>
     <row r="182">
@@ -5158,10 +5158,10 @@
         <v>5722606460.95</v>
       </c>
       <c r="F182">
-        <v>27.69070376976697</v>
+        <v>27.69</v>
       </c>
       <c r="G182">
-        <v>140.8867945246637</v>
+        <v>140.89</v>
       </c>
     </row>
     <row r="183">
@@ -5185,10 +5185,10 @@
         <v>5877415325.49</v>
       </c>
       <c r="F183">
-        <v>2.705215981500508</v>
+        <v>2.71</v>
       </c>
       <c r="G183">
-        <v>144.6980866059687</v>
+        <v>144.7</v>
       </c>
     </row>
     <row r="184">
@@ -5236,10 +5236,10 @@
         <v>4166993882.63</v>
       </c>
       <c r="F185">
-        <v>11.34343577566046</v>
+        <v>11.34</v>
       </c>
       <c r="G185">
-        <v>111.3434357756605</v>
+        <v>111.34</v>
       </c>
     </row>
     <row r="186">
@@ -5263,10 +5263,10 @@
         <v>5259313260.99</v>
       </c>
       <c r="F186">
-        <v>26.2136064781209</v>
+        <v>26.21</v>
       </c>
       <c r="G186">
-        <v>140.5305658691114</v>
+        <v>140.53</v>
       </c>
     </row>
     <row r="187">
@@ -5290,10 +5290,10 @@
         <v>10057555481.58</v>
       </c>
       <c r="F187">
-        <v>91.2332462905393</v>
+        <v>91.23</v>
       </c>
       <c r="G187">
-        <v>268.7411631419663</v>
+        <v>268.74</v>
       </c>
     </row>
     <row r="188">
@@ -5317,10 +5317,10 @@
         <v>11662035346.5</v>
       </c>
       <c r="F188">
-        <v>15.95298050165908</v>
+        <v>15.95</v>
       </c>
       <c r="G188">
-        <v>311.6133884979359</v>
+        <v>311.61</v>
       </c>
     </row>
     <row r="189">
@@ -5368,10 +5368,10 @@
         <v>36393854128.58</v>
       </c>
       <c r="F190">
-        <v>8.759454447839099</v>
+        <v>8.76</v>
       </c>
       <c r="G190">
-        <v>108.7594544478391</v>
+        <v>108.76</v>
       </c>
     </row>
     <row r="191">
@@ -5395,10 +5395,10 @@
         <v>40348286521.75</v>
       </c>
       <c r="F191">
-        <v>10.86565984245289</v>
+        <v>10.87</v>
       </c>
       <c r="G191">
-        <v>120.5768868146488</v>
+        <v>120.58</v>
       </c>
     </row>
     <row r="192">
@@ -5422,10 +5422,10 @@
         <v>49761390314.35</v>
       </c>
       <c r="F192">
-        <v>23.32962463604446</v>
+        <v>23.33</v>
       </c>
       <c r="G192">
-        <v>148.7070219063345</v>
+        <v>148.71</v>
       </c>
     </row>
     <row r="193">
@@ -5449,10 +5449,10 @@
         <v>55204698353.23</v>
       </c>
       <c r="F193">
-        <v>10.93881823738008</v>
+        <v>10.94</v>
       </c>
       <c r="G193">
-        <v>164.9738127388895</v>
+        <v>164.97</v>
       </c>
     </row>
     <row r="194">
@@ -5500,10 +5500,10 @@
         <v>2141436136.42</v>
       </c>
       <c r="F195">
-        <v>2.495930059845031</v>
+        <v>2.5</v>
       </c>
       <c r="G195">
-        <v>102.495930059845</v>
+        <v>102.5</v>
       </c>
     </row>
     <row r="196">
@@ -5527,10 +5527,10 @@
         <v>2243189737.04</v>
       </c>
       <c r="F196">
-        <v>4.75165235560604</v>
+        <v>4.75</v>
       </c>
       <c r="G196">
-        <v>107.366180334934</v>
+        <v>107.37</v>
       </c>
     </row>
     <row r="197">
@@ -5554,10 +5554,10 @@
         <v>2583659016.36</v>
       </c>
       <c r="F197">
-        <v>15.17790821249325</v>
+        <v>15.18</v>
       </c>
       <c r="G197">
-        <v>123.6621206374302</v>
+        <v>123.66</v>
       </c>
     </row>
     <row r="198">
@@ -5581,10 +5581,10 @@
         <v>2742356320.03</v>
       </c>
       <c r="F198">
-        <v>6.142347061478004</v>
+        <v>6.14</v>
       </c>
       <c r="G198">
-        <v>131.2578772705648</v>
+        <v>131.26</v>
       </c>
     </row>
     <row r="199">
@@ -5632,10 +5632,10 @@
         <v>3219001368.02</v>
       </c>
       <c r="F200">
-        <v>2.146483558513546</v>
+        <v>2.15</v>
       </c>
       <c r="G200">
-        <v>102.1464835585136</v>
+        <v>102.15</v>
       </c>
     </row>
     <row r="201">
@@ -5659,10 +5659,10 @@
         <v>3429755218.36</v>
       </c>
       <c r="F201">
-        <v>6.547181136168145</v>
+        <v>6.55</v>
       </c>
       <c r="G201">
-        <v>108.8341988613156</v>
+        <v>108.83</v>
       </c>
     </row>
     <row r="202">
@@ -5686,10 +5686,10 @@
         <v>3837456438.49</v>
       </c>
       <c r="F202">
-        <v>11.88718127601389</v>
+        <v>11.89</v>
       </c>
       <c r="G202">
-        <v>121.7715173702577</v>
+        <v>121.77</v>
       </c>
     </row>
     <row r="203">
@@ -5713,10 +5713,10 @@
         <v>4007290482.09</v>
       </c>
       <c r="F203">
-        <v>4.425693068370795</v>
+        <v>4.43</v>
       </c>
       <c r="G203">
-        <v>127.1607509737631</v>
+        <v>127.16</v>
       </c>
     </row>
     <row r="204">
@@ -5764,10 +5764,10 @@
         <v>5229042.74</v>
       </c>
       <c r="F205">
-        <v>1192.618228858053</v>
+        <v>1192.62</v>
       </c>
       <c r="G205">
-        <v>1292.618228858053</v>
+        <v>1292.62</v>
       </c>
     </row>
     <row r="206">
@@ -5791,10 +5791,10 @@
         <v>31285773.82</v>
       </c>
       <c r="F206">
-        <v>498.3078619854616</v>
+        <v>498.31</v>
       </c>
       <c r="G206">
-        <v>7733.836488714959</v>
+        <v>7733.84</v>
       </c>
     </row>
     <row r="207">
@@ -5842,10 +5842,10 @@
         <v>23757333459.15</v>
       </c>
       <c r="F208">
-        <v>-1.759027519144063</v>
+        <v>-1.76</v>
       </c>
       <c r="G208">
-        <v>98.24097248085593</v>
+        <v>98.23999999999999</v>
       </c>
     </row>
     <row r="209">
@@ -5869,10 +5869,10 @@
         <v>26113929305.55</v>
       </c>
       <c r="F209">
-        <v>9.9194459279367</v>
+        <v>9.92</v>
       </c>
       <c r="G209">
-        <v>107.9859326251736</v>
+        <v>107.99</v>
       </c>
     </row>
     <row r="210">
@@ -5896,10 +5896,10 @@
         <v>27468591675.07</v>
       </c>
       <c r="F210">
-        <v>5.187508756991588</v>
+        <v>5.19</v>
       </c>
       <c r="G210">
-        <v>113.5877123364235</v>
+        <v>113.59</v>
       </c>
     </row>
     <row r="211">
@@ -5923,10 +5923,10 @@
         <v>29352011055.83</v>
       </c>
       <c r="F211">
-        <v>6.856628847373192</v>
+        <v>6.86</v>
       </c>
       <c r="G211">
-        <v>121.376000187554</v>
+        <v>121.38</v>
       </c>
     </row>
     <row r="212">
@@ -5974,10 +5974,10 @@
         <v>11617825304.67</v>
       </c>
       <c r="F213">
-        <v>1.791874760977685</v>
+        <v>1.79</v>
       </c>
       <c r="G213">
-        <v>101.7918747609777</v>
+        <v>101.79</v>
       </c>
     </row>
     <row r="214">
@@ -6001,10 +6001,10 @@
         <v>11070148544.22</v>
       </c>
       <c r="F214">
-        <v>-4.714107383159327</v>
+        <v>-4.71</v>
       </c>
       <c r="G214">
-        <v>96.99329647741413</v>
+        <v>96.98999999999999</v>
       </c>
     </row>
     <row r="215">
@@ -6028,10 +6028,10 @@
         <v>13194913634.27</v>
       </c>
       <c r="F215">
-        <v>19.19364570007864</v>
+        <v>19.19</v>
       </c>
       <c r="G215">
-        <v>115.6098461561159</v>
+        <v>115.61</v>
       </c>
     </row>
     <row r="216">
@@ -6055,10 +6055,10 @@
         <v>13769736004.85</v>
       </c>
       <c r="F216">
-        <v>4.356393580986118</v>
+        <v>4.36</v>
       </c>
       <c r="G216">
-        <v>120.6462660730488</v>
+        <v>120.65</v>
       </c>
     </row>
     <row r="217">
@@ -6130,10 +6130,10 @@
         <v>18924390.21</v>
       </c>
       <c r="F219">
-        <v>1667.681967168647</v>
+        <v>1667.68</v>
       </c>
       <c r="G219">
-        <v>1767.681967168647</v>
+        <v>1767.68</v>
       </c>
     </row>
     <row r="220">
@@ -6157,10 +6157,10 @@
         <v>63350325.09</v>
       </c>
       <c r="F220">
-        <v>234.7549082798161</v>
+        <v>234.75</v>
       </c>
       <c r="G220">
-        <v>5917.402147874253</v>
+        <v>5917.4</v>
       </c>
     </row>
     <row r="221">
@@ -6208,10 +6208,10 @@
         <v>132755913660.82</v>
       </c>
       <c r="F222">
-        <v>3.816426673177475</v>
+        <v>3.82</v>
       </c>
       <c r="G222">
-        <v>103.8164266731775</v>
+        <v>103.82</v>
       </c>
     </row>
     <row r="223">
@@ -6235,10 +6235,10 @@
         <v>132470039030.08</v>
       </c>
       <c r="F223">
-        <v>-0.215338528323783</v>
+        <v>-0.22</v>
       </c>
       <c r="G223">
-        <v>103.5928699078211</v>
+        <v>103.59</v>
       </c>
     </row>
     <row r="224">
@@ -6262,10 +6262,10 @@
         <v>149716270748.96</v>
       </c>
       <c r="F224">
-        <v>13.01896779464515</v>
+        <v>13.02</v>
       </c>
       <c r="G224">
-        <v>117.079592278669</v>
+        <v>117.08</v>
       </c>
     </row>
     <row r="225">
@@ -6289,10 +6289,10 @@
         <v>154178319571.61</v>
       </c>
       <c r="F225">
-        <v>2.980336606254252</v>
+        <v>2.98</v>
       </c>
       <c r="G225">
-        <v>120.5689582258034</v>
+        <v>120.57</v>
       </c>
     </row>
     <row r="226">
@@ -6340,10 +6340,10 @@
         <v>6970309911.36</v>
       </c>
       <c r="F227">
-        <v>1.090824323295148</v>
+        <v>1.09</v>
       </c>
       <c r="G227">
-        <v>101.0908243232952</v>
+        <v>101.09</v>
       </c>
     </row>
     <row r="228">
@@ -6367,10 +6367,10 @@
         <v>6720152409.34</v>
       </c>
       <c r="F228">
-        <v>-3.588900711750287</v>
+        <v>-3.59</v>
       </c>
       <c r="G228">
-        <v>97.46277500964217</v>
+        <v>97.45999999999999</v>
       </c>
     </row>
     <row r="229">
@@ -6394,10 +6394,10 @@
         <v>7727340235.62</v>
       </c>
       <c r="F229">
-        <v>14.98757416394545</v>
+        <v>14.99</v>
       </c>
       <c r="G229">
-        <v>112.0700806964516</v>
+        <v>112.07</v>
       </c>
     </row>
     <row r="230">
@@ -6421,10 +6421,10 @@
         <v>8182347227.19</v>
       </c>
       <c r="F230">
-        <v>5.88827433108996</v>
+        <v>5.89</v>
       </c>
       <c r="G230">
-        <v>118.6690744909326</v>
+        <v>118.67</v>
       </c>
     </row>
     <row r="231">
@@ -6472,10 +6472,10 @@
         <v>12489022932.16</v>
       </c>
       <c r="F232">
-        <v>9.405509418045011</v>
+        <v>9.41</v>
       </c>
       <c r="G232">
-        <v>109.405509418045</v>
+        <v>109.41</v>
       </c>
     </row>
     <row r="233">
@@ -6499,10 +6499,10 @@
         <v>13096082163.11</v>
       </c>
       <c r="F233">
-        <v>4.860742383511729</v>
+        <v>4.86</v>
       </c>
       <c r="G233">
-        <v>114.7234293842248</v>
+        <v>114.72</v>
       </c>
     </row>
     <row r="234">
@@ -6550,10 +6550,10 @@
         <v>471264332.85</v>
       </c>
       <c r="F235">
-        <v>-6.536191453575169</v>
+        <v>-6.54</v>
       </c>
       <c r="G235">
-        <v>93.46380854642483</v>
+        <v>93.45999999999999</v>
       </c>
     </row>
     <row r="236">
@@ -6577,10 +6577,10 @@
         <v>386451715.98</v>
       </c>
       <c r="F236">
-        <v>-17.99682491503027</v>
+        <v>-18</v>
       </c>
       <c r="G236">
-        <v>76.64329056340566</v>
+        <v>76.64</v>
       </c>
     </row>
     <row r="237">
@@ -6604,10 +6604,10 @@
         <v>968221090.21</v>
       </c>
       <c r="F237">
-        <v>150.5412837292481</v>
+        <v>150.54</v>
       </c>
       <c r="G237">
-        <v>192.0230840698942</v>
+        <v>192.02</v>
       </c>
     </row>
     <row r="238">
@@ -6631,10 +6631,10 @@
         <v>1205290542.73</v>
       </c>
       <c r="F238">
-        <v>24.48505356029596</v>
+        <v>24.49</v>
       </c>
       <c r="G238">
-        <v>239.04003905254</v>
+        <v>239.04</v>
       </c>
     </row>
     <row r="239">
@@ -6682,10 +6682,10 @@
         <v>71210717208.44</v>
       </c>
       <c r="F240">
-        <v>-1.937591648175352</v>
+        <v>-1.94</v>
       </c>
       <c r="G240">
-        <v>98.06240835182464</v>
+        <v>98.06</v>
       </c>
     </row>
     <row r="241">
@@ -6709,10 +6709,10 @@
         <v>74918069530.94</v>
       </c>
       <c r="F241">
-        <v>5.20617186265413</v>
+        <v>5.21</v>
       </c>
       <c r="G241">
-        <v>103.1677058632783</v>
+        <v>103.17</v>
       </c>
     </row>
     <row r="242">
@@ -6736,10 +6736,10 @@
         <v>80651047217.61</v>
       </c>
       <c r="F242">
-        <v>7.652329701718186</v>
+        <v>7.65</v>
       </c>
       <c r="G242">
-        <v>111.0624388616352</v>
+        <v>111.06</v>
       </c>
     </row>
     <row r="243">
@@ -6763,10 +6763,10 @@
         <v>86945610739.34</v>
       </c>
       <c r="F243">
-        <v>7.804689137818888</v>
+        <v>7.8</v>
       </c>
       <c r="G243">
-        <v>119.730516963666</v>
+        <v>119.73</v>
       </c>
     </row>
     <row r="244">
@@ -6814,10 +6814,10 @@
         <v>2224365976.25</v>
       </c>
       <c r="F245">
-        <v>2.09024352228051</v>
+        <v>2.09</v>
       </c>
       <c r="G245">
-        <v>102.0902435222805</v>
+        <v>102.09</v>
       </c>
     </row>
     <row r="246">
@@ -6841,10 +6841,10 @@
         <v>2127391255.41</v>
       </c>
       <c r="F246">
-        <v>-4.359656723552618</v>
+        <v>-4.36</v>
       </c>
       <c r="G246">
-        <v>97.63945935647017</v>
+        <v>97.64</v>
       </c>
     </row>
     <row r="247">
@@ -6868,10 +6868,10 @@
         <v>2515959298.1</v>
       </c>
       <c r="F247">
-        <v>18.26500140497727</v>
+        <v>18.27</v>
       </c>
       <c r="G247">
-        <v>115.4733079797416</v>
+        <v>115.47</v>
       </c>
     </row>
     <row r="248">
@@ -6895,10 +6895,10 @@
         <v>2718186308.21</v>
       </c>
       <c r="F248">
-        <v>8.037769540338658</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="G248">
-        <v>124.7547863557588</v>
+        <v>124.75</v>
       </c>
     </row>
     <row r="249">
@@ -6946,10 +6946,10 @@
         <v>1988012309.63</v>
       </c>
       <c r="F250">
-        <v>1.179396661161869</v>
+        <v>1.18</v>
       </c>
       <c r="G250">
-        <v>101.1793966611619</v>
+        <v>101.18</v>
       </c>
     </row>
     <row r="251">
@@ -6973,10 +6973,10 @@
         <v>1980315493.46</v>
       </c>
       <c r="F251">
-        <v>-0.3871613939569918</v>
+        <v>-0.39</v>
       </c>
       <c r="G251">
-        <v>100.7876690986513</v>
+        <v>100.79</v>
       </c>
     </row>
     <row r="252">
@@ -7000,10 +7000,10 @@
         <v>2183175579.55</v>
       </c>
       <c r="F252">
-        <v>10.24382664075227</v>
+        <v>10.24</v>
       </c>
       <c r="G252">
-        <v>111.1121831963721</v>
+        <v>111.11</v>
       </c>
     </row>
     <row r="253">
@@ -7027,10 +7027,10 @@
         <v>2185548727.9</v>
       </c>
       <c r="F253">
-        <v>0.1087016716488254</v>
+        <v>0.11</v>
       </c>
       <c r="G253">
-        <v>111.2329639969121</v>
+        <v>111.23</v>
       </c>
     </row>
     <row r="254">
@@ -7078,10 +7078,10 @@
         <v>7733021.32</v>
       </c>
       <c r="F255">
-        <v>21.05245775400626</v>
+        <v>21.05</v>
       </c>
       <c r="G255">
-        <v>121.0524577540063</v>
+        <v>121.05</v>
       </c>
     </row>
     <row r="256">
@@ -7105,10 +7105,10 @@
         <v>12840331.56</v>
       </c>
       <c r="F256">
-        <v>66.04546953453894</v>
+        <v>66.05</v>
       </c>
       <c r="G256">
-        <v>201.0021218607391</v>
+        <v>201</v>
       </c>
     </row>
     <row r="257">
@@ -7132,10 +7132,10 @@
         <v>145700517.02</v>
       </c>
       <c r="F257">
-        <v>1034.709928160142</v>
+        <v>1034.71</v>
       </c>
       <c r="G257">
-        <v>2280.791032566353</v>
+        <v>2280.79</v>
       </c>
     </row>
     <row r="258">
@@ -7159,10 +7159,10 @@
         <v>76025694.81999999</v>
       </c>
       <c r="F258">
-        <v>-47.82057306662536</v>
+        <v>-47.82</v>
       </c>
       <c r="G258">
-        <v>1190.103690340921</v>
+        <v>1190.1</v>
       </c>
     </row>
     <row r="259">
@@ -7210,10 +7210,10 @@
         <v>18063985593.6</v>
       </c>
       <c r="F260">
-        <v>1.858623333691023</v>
+        <v>1.86</v>
       </c>
       <c r="G260">
-        <v>101.858623333691</v>
+        <v>101.86</v>
       </c>
     </row>
     <row r="261">
@@ -7237,10 +7237,10 @@
         <v>18490091999.39</v>
       </c>
       <c r="F261">
-        <v>2.358872595320105</v>
+        <v>2.36</v>
       </c>
       <c r="G261">
-        <v>104.2613384854798</v>
+        <v>104.26</v>
       </c>
     </row>
     <row r="262">
@@ -7264,10 +7264,10 @@
         <v>19897448285.05</v>
       </c>
       <c r="F262">
-        <v>7.61140769719495</v>
+        <v>7.61</v>
       </c>
       <c r="G262">
-        <v>112.1970940281621</v>
+        <v>112.2</v>
       </c>
     </row>
     <row r="263">
@@ -7291,10 +7291,10 @@
         <v>22352818025.64</v>
       </c>
       <c r="F263">
-        <v>12.34012374559028</v>
+        <v>12.34</v>
       </c>
       <c r="G263">
-        <v>126.0423542701936</v>
+        <v>126.04</v>
       </c>
     </row>
     <row r="264">
@@ -7342,10 +7342,10 @@
         <v>3836081247.27</v>
       </c>
       <c r="F265">
-        <v>5.555913774314925</v>
+        <v>5.56</v>
       </c>
       <c r="G265">
-        <v>105.5559137743149</v>
+        <v>105.56</v>
       </c>
     </row>
     <row r="266">
@@ -7369,10 +7369,10 @@
         <v>3888708759.1</v>
       </c>
       <c r="F266">
-        <v>1.371908164548219</v>
+        <v>1.37</v>
       </c>
       <c r="G266">
-        <v>107.0040439735482</v>
+        <v>107</v>
       </c>
     </row>
     <row r="267">
@@ -7396,10 +7396,10 @@
         <v>4522151781.93</v>
       </c>
       <c r="F267">
-        <v>16.28928937780889</v>
+        <v>16.29</v>
       </c>
       <c r="G267">
-        <v>124.4342423423574</v>
+        <v>124.43</v>
       </c>
     </row>
     <row r="268">
@@ -7423,10 +7423,10 @@
         <v>5128254436.58</v>
       </c>
       <c r="F268">
-        <v>13.40297017609882</v>
+        <v>13.4</v>
       </c>
       <c r="G268">
-        <v>141.1121267323581</v>
+        <v>141.11</v>
       </c>
     </row>
     <row r="269">
@@ -7498,10 +7498,10 @@
         <v>70895923.58</v>
       </c>
       <c r="F271">
-        <v>-63.69887477148324</v>
+        <v>-63.7</v>
       </c>
       <c r="G271">
-        <v>36.30112522851676</v>
+        <v>36.3</v>
       </c>
     </row>
     <row r="272">
@@ -7525,10 +7525,10 @@
         <v>590764724.03</v>
       </c>
       <c r="F272">
-        <v>733.2844741959987</v>
+        <v>733.28</v>
       </c>
       <c r="G272">
-        <v>302.4916404876769</v>
+        <v>302.49</v>
       </c>
     </row>
     <row r="273">
@@ -7552,10 +7552,10 @@
         <v>151000940.69</v>
       </c>
       <c r="F273">
-        <v>-74.43974994648937</v>
+        <v>-74.44</v>
       </c>
       <c r="G273">
-        <v>77.3176196996166</v>
+        <v>77.31999999999999</v>
       </c>
     </row>
     <row r="274">
@@ -7579,10 +7579,10 @@
         <v>359504167.29</v>
       </c>
       <c r="F274">
-        <v>138.0807468133926</v>
+        <v>138.08</v>
       </c>
       <c r="G274">
-        <v>184.078366399186</v>
+        <v>184.08</v>
       </c>
     </row>
     <row r="275">
@@ -7630,10 +7630,10 @@
         <v>37587755007.63</v>
       </c>
       <c r="F276">
-        <v>6.225194613765384</v>
+        <v>6.23</v>
       </c>
       <c r="G276">
-        <v>106.2251946137654</v>
+        <v>106.23</v>
       </c>
     </row>
     <row r="277">
@@ -7657,10 +7657,10 @@
         <v>41680441774.56</v>
       </c>
       <c r="F277">
-        <v>10.88835118271687</v>
+        <v>10.89</v>
       </c>
       <c r="G277">
-        <v>117.7913668478366</v>
+        <v>117.79</v>
       </c>
     </row>
     <row r="278">
@@ -7684,10 +7684,10 @@
         <v>41932878922.12</v>
       </c>
       <c r="F278">
-        <v>0.6056489250410912</v>
+        <v>0.61</v>
       </c>
       <c r="G278">
-        <v>118.5047689949417</v>
+        <v>118.5</v>
       </c>
     </row>
     <row r="279">
@@ -7711,10 +7711,10 @@
         <v>50356096660.67</v>
       </c>
       <c r="F279">
-        <v>20.08738239555183</v>
+        <v>20.09</v>
       </c>
       <c r="G279">
-        <v>142.3092750999211</v>
+        <v>142.31</v>
       </c>
     </row>
     <row r="280">
@@ -7762,10 +7762,10 @@
         <v>4915692302.2</v>
       </c>
       <c r="F281">
-        <v>4.869876827351449</v>
+        <v>4.87</v>
       </c>
       <c r="G281">
-        <v>104.8698768273514</v>
+        <v>104.87</v>
       </c>
     </row>
     <row r="282">
@@ -7789,10 +7789,10 @@
         <v>4639955755.47</v>
       </c>
       <c r="F282">
-        <v>-5.609312580581882</v>
+        <v>-5.61</v>
       </c>
       <c r="G282">
-        <v>98.9873976332341</v>
+        <v>98.98999999999999</v>
       </c>
     </row>
     <row r="283">
@@ -7816,10 +7816,10 @@
         <v>5359896416.29</v>
       </c>
       <c r="F283">
-        <v>15.51611047090844</v>
+        <v>15.52</v>
       </c>
       <c r="G283">
-        <v>114.3463916022841</v>
+        <v>114.35</v>
       </c>
     </row>
     <row r="284">
@@ -7843,10 +7843,10 @@
         <v>5689108196.8</v>
       </c>
       <c r="F284">
-        <v>6.142129529023133</v>
+        <v>6.14</v>
       </c>
       <c r="G284">
-        <v>121.3696950862604</v>
+        <v>121.37</v>
       </c>
     </row>
     <row r="285">
@@ -7894,10 +7894,10 @@
         <v>24063706.79</v>
       </c>
       <c r="F286">
-        <v>25.89817770719933</v>
+        <v>25.9</v>
       </c>
       <c r="G286">
-        <v>125.8981777071993</v>
+        <v>125.9</v>
       </c>
     </row>
     <row r="287">
@@ -7921,10 +7921,10 @@
         <v>35610252.15</v>
       </c>
       <c r="F287">
-        <v>47.98323658430845</v>
+        <v>47.98</v>
       </c>
       <c r="G287">
-        <v>186.3081981717779</v>
+        <v>186.31</v>
       </c>
     </row>
     <row r="288">
@@ -7948,10 +7948,10 @@
         <v>136319597.14</v>
       </c>
       <c r="F288">
-        <v>282.8099744022734</v>
+        <v>282.81</v>
       </c>
       <c r="G288">
-        <v>713.2063657307197</v>
+        <v>713.21</v>
       </c>
     </row>
     <row r="289">
@@ -7975,10 +7975,10 @@
         <v>55446050.98</v>
       </c>
       <c r="F289">
-        <v>-59.32642690906943</v>
+        <v>-59.33</v>
       </c>
       <c r="G289">
-        <v>290.0865124546539</v>
+        <v>290.09</v>
       </c>
     </row>
     <row r="290">
@@ -8026,10 +8026,10 @@
         <v>50607601076.53</v>
       </c>
       <c r="F291">
-        <v>3.558799675078728</v>
+        <v>3.56</v>
       </c>
       <c r="G291">
-        <v>103.5587996750787</v>
+        <v>103.56</v>
       </c>
     </row>
     <row r="292">
@@ -8053,10 +8053,10 @@
         <v>50781313530.36</v>
       </c>
       <c r="F292">
-        <v>0.3432536815315634</v>
+        <v>0.34</v>
       </c>
       <c r="G292">
-        <v>103.9142690675133</v>
+        <v>103.91</v>
       </c>
     </row>
     <row r="293">
@@ -8080,10 +8080,10 @@
         <v>52304611216.41</v>
       </c>
       <c r="F293">
-        <v>2.999720921238658</v>
+        <v>3</v>
       </c>
       <c r="G293">
-        <v>107.0314071368838</v>
+        <v>107.03</v>
       </c>
     </row>
     <row r="294">
@@ -8107,10 +8107,10 @@
         <v>57146887229.82</v>
       </c>
       <c r="F294">
-        <v>9.257837694988513</v>
+        <v>9.26</v>
       </c>
       <c r="G294">
-        <v>116.9402010922788</v>
+        <v>116.94</v>
       </c>
     </row>
     <row r="295">
@@ -8158,10 +8158,10 @@
         <v>1860425198.22</v>
       </c>
       <c r="F296">
-        <v>1.810312297651939</v>
+        <v>1.81</v>
       </c>
       <c r="G296">
-        <v>101.8103122976519</v>
+        <v>101.81</v>
       </c>
     </row>
     <row r="297">
@@ -8185,10 +8185,10 @@
         <v>1772084278.39</v>
       </c>
       <c r="F297">
-        <v>-4.748426322892307</v>
+        <v>-4.75</v>
       </c>
       <c r="G297">
-        <v>96.97592462909137</v>
+        <v>96.98</v>
       </c>
     </row>
     <row r="298">
@@ -8212,10 +8212,10 @@
         <v>2121029080.92</v>
       </c>
       <c r="F298">
-        <v>19.69120807544371</v>
+        <v>19.69</v>
       </c>
       <c r="G298">
-        <v>116.0716557308912</v>
+        <v>116.07</v>
       </c>
     </row>
     <row r="299">
@@ -8239,10 +8239,10 @@
         <v>2297374674.85</v>
       </c>
       <c r="F299">
-        <v>8.314152574160349</v>
+        <v>8.31</v>
       </c>
       <c r="G299">
-        <v>125.7220302837116</v>
+        <v>125.72</v>
       </c>
     </row>
     <row r="300">
@@ -8290,10 +8290,10 @@
         <v>1504256084.04</v>
       </c>
       <c r="F301">
-        <v>-1.200306663076922</v>
+        <v>-1.2</v>
       </c>
       <c r="G301">
-        <v>98.79969333692308</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="302">
@@ -8317,10 +8317,10 @@
         <v>1520345843.62</v>
       </c>
       <c r="F302">
-        <v>1.069615722396655</v>
+        <v>1.07</v>
       </c>
       <c r="G302">
-        <v>99.8564703905345</v>
+        <v>99.86</v>
       </c>
     </row>
     <row r="303">
@@ -8344,10 +8344,10 @@
         <v>1633054193.9</v>
       </c>
       <c r="F303">
-        <v>7.413336297985818</v>
+        <v>7.41</v>
       </c>
       <c r="G303">
-        <v>107.2591663558834</v>
+        <v>107.26</v>
       </c>
     </row>
     <row r="304">
@@ -8371,10 +8371,10 @@
         <v>1622514348.94</v>
       </c>
       <c r="F304">
-        <v>-0.6454069313418853</v>
+        <v>-0.65</v>
       </c>
       <c r="G304">
-        <v>106.566908261723</v>
+        <v>106.57</v>
       </c>
     </row>
     <row r="305">
@@ -8422,10 +8422,10 @@
         <v>7626101.88</v>
       </c>
       <c r="F306">
-        <v>19.18299470113796</v>
+        <v>19.18</v>
       </c>
       <c r="G306">
-        <v>119.182994701138</v>
+        <v>119.18</v>
       </c>
     </row>
     <row r="307">
@@ -8449,10 +8449,10 @@
         <v>5214036.96</v>
       </c>
       <c r="F307">
-        <v>-31.6290676148166</v>
+        <v>-31.63</v>
       </c>
       <c r="G307">
-        <v>81.48652472175175</v>
+        <v>81.48999999999999</v>
       </c>
     </row>
     <row r="308">
@@ -8476,10 +8476,10 @@
         <v>7025920.06</v>
       </c>
       <c r="F308">
-        <v>34.75010081248062</v>
+        <v>34.75</v>
       </c>
       <c r="G308">
-        <v>109.8031742111474</v>
+        <v>109.8</v>
       </c>
     </row>
     <row r="309">
@@ -8503,10 +8503,10 @@
         <v>10910660.16</v>
       </c>
       <c r="F309">
-        <v>55.29154995822712</v>
+        <v>55.29</v>
       </c>
       <c r="G309">
-        <v>170.5150511358232</v>
+        <v>170.52</v>
       </c>
     </row>
     <row r="310">
@@ -8554,10 +8554,10 @@
         <v>17209183276.05</v>
       </c>
       <c r="F311">
-        <v>3.609336048773093</v>
+        <v>3.61</v>
       </c>
       <c r="G311">
-        <v>103.6093360487731</v>
+        <v>103.61</v>
       </c>
     </row>
     <row r="312">
@@ -8581,10 +8581,10 @@
         <v>19444318925.62</v>
       </c>
       <c r="F312">
-        <v>12.98804024407501</v>
+        <v>12.99</v>
       </c>
       <c r="G312">
-        <v>117.0661583114067</v>
+        <v>117.07</v>
       </c>
     </row>
     <row r="313">
@@ -8608,10 +8608,10 @@
         <v>19882579454.25</v>
       </c>
       <c r="F313">
-        <v>2.253925839760562</v>
+        <v>2.25</v>
       </c>
       <c r="G313">
-        <v>119.7047427032025</v>
+        <v>119.7</v>
       </c>
     </row>
     <row r="314">
@@ -8635,10 +8635,10 @@
         <v>19848772367.04</v>
       </c>
       <c r="F314">
-        <v>-0.1700337085929426</v>
+        <v>-0.17</v>
       </c>
       <c r="G314">
-        <v>119.5012042898226</v>
+        <v>119.5</v>
       </c>
     </row>
     <row r="315">
@@ -8686,10 +8686,10 @@
         <v>2058833114.56</v>
       </c>
       <c r="F316">
-        <v>-1.480439517458343</v>
+        <v>-1.48</v>
       </c>
       <c r="G316">
-        <v>98.51956048254166</v>
+        <v>98.52</v>
       </c>
     </row>
     <row r="317">
@@ -8713,10 +8713,10 @@
         <v>1945933401.36</v>
       </c>
       <c r="F317">
-        <v>-5.483674825393914</v>
+        <v>-5.48</v>
       </c>
       <c r="G317">
-        <v>93.11706814627179</v>
+        <v>93.12</v>
       </c>
     </row>
     <row r="318">
@@ -8740,10 +8740,10 @@
         <v>2191512621.7</v>
       </c>
       <c r="F318">
-        <v>12.62012462340008</v>
+        <v>12.62</v>
       </c>
       <c r="G318">
-        <v>104.8685581919877</v>
+        <v>104.87</v>
       </c>
     </row>
     <row r="319">
@@ -8767,10 +8767,10 @@
         <v>2370930680.12</v>
       </c>
       <c r="F319">
-        <v>8.18695072268496</v>
+        <v>8.19</v>
       </c>
       <c r="G319">
-        <v>113.4540953747559</v>
+        <v>113.45</v>
       </c>
     </row>
     <row r="320">
@@ -8818,10 +8818,10 @@
         <v>1964766438.36</v>
       </c>
       <c r="F321">
-        <v>-1.053614450111429</v>
+        <v>-1.05</v>
       </c>
       <c r="G321">
-        <v>98.94638554988857</v>
+        <v>98.95</v>
       </c>
     </row>
     <row r="322">
@@ -8845,10 +8845,10 @@
         <v>1913675313.73</v>
       </c>
       <c r="F322">
-        <v>-2.600366314921676</v>
+        <v>-2.6</v>
       </c>
       <c r="G322">
-        <v>96.37341707021673</v>
+        <v>96.37</v>
       </c>
     </row>
     <row r="323">
@@ -8872,10 +8872,10 @@
         <v>2025583824.07</v>
       </c>
       <c r="F323">
-        <v>5.847831632518474</v>
+        <v>5.85</v>
       </c>
       <c r="G323">
-        <v>102.0091722389878</v>
+        <v>102.01</v>
       </c>
     </row>
     <row r="324">
@@ -8899,10 +8899,10 @@
         <v>2076462857.55</v>
       </c>
       <c r="F324">
-        <v>2.511820684752952</v>
+        <v>2.51</v>
       </c>
       <c r="G324">
-        <v>104.571459727632</v>
+        <v>104.57</v>
       </c>
     </row>
     <row r="325">
@@ -8950,10 +8950,10 @@
         <v>1585338.5</v>
       </c>
       <c r="F326">
-        <v>4946.091053424307</v>
+        <v>4946.09</v>
       </c>
       <c r="G326">
-        <v>5046.091053424307</v>
+        <v>5046.09</v>
       </c>
     </row>
     <row r="327">
@@ -8977,10 +8977,10 @@
         <v>5146889.43</v>
       </c>
       <c r="F327">
-        <v>224.6555502184549</v>
+        <v>224.66</v>
       </c>
       <c r="G327">
-        <v>16382.41467401891</v>
+        <v>16382.41</v>
       </c>
     </row>
     <row r="328">
@@ -9004,10 +9004,10 @@
         <v>6116024.14</v>
       </c>
       <c r="F328">
-        <v>18.82952263072028</v>
+        <v>18.83</v>
       </c>
       <c r="G328">
-        <v>19467.14515252174</v>
+        <v>19467.14</v>
       </c>
     </row>
     <row r="329">
@@ -9055,10 +9055,10 @@
         <v>19193807335.65</v>
       </c>
       <c r="F330">
-        <v>2.337537106089971</v>
+        <v>2.34</v>
       </c>
       <c r="G330">
-        <v>102.33753710609</v>
+        <v>102.34</v>
       </c>
     </row>
     <row r="331">
@@ -9082,10 +9082,10 @@
         <v>19731661698.31</v>
       </c>
       <c r="F331">
-        <v>2.802228621212666</v>
+        <v>2.8</v>
       </c>
       <c r="G331">
-        <v>105.205268861121</v>
+        <v>105.21</v>
       </c>
     </row>
     <row r="332">
@@ -9109,10 +9109,10 @@
         <v>20508617300.28</v>
       </c>
       <c r="F332">
-        <v>3.937608569665185</v>
+        <v>3.94</v>
       </c>
       <c r="G332">
-        <v>109.3478405435357</v>
+        <v>109.35</v>
       </c>
     </row>
     <row r="333">
@@ -9136,10 +9136,10 @@
         <v>22225560728.2</v>
       </c>
       <c r="F333">
-        <v>8.371814651281051</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="G333">
-        <v>118.5022390790189</v>
+        <v>118.5</v>
       </c>
     </row>
     <row r="334">
@@ -9187,10 +9187,10 @@
         <v>7635968659.4</v>
       </c>
       <c r="F335">
-        <v>-1.433203259240645</v>
+        <v>-1.43</v>
       </c>
       <c r="G335">
-        <v>98.56679674075936</v>
+        <v>98.56999999999999</v>
       </c>
     </row>
     <row r="336">
@@ -9214,10 +9214,10 @@
         <v>7409411162.44</v>
       </c>
       <c r="F336">
-        <v>-2.966977826462192</v>
+        <v>-2.97</v>
       </c>
       <c r="G336">
-        <v>95.64234173720698</v>
+        <v>95.64</v>
       </c>
     </row>
     <row r="337">
@@ -9241,10 +9241,10 @@
         <v>8840319297.1</v>
       </c>
       <c r="F337">
-        <v>19.31203577841114</v>
+        <v>19.31</v>
       </c>
       <c r="G337">
-        <v>114.1128249928066</v>
+        <v>114.11</v>
       </c>
     </row>
     <row r="338">
@@ -9268,10 +9268,10 @@
         <v>7951111885.51</v>
       </c>
       <c r="F338">
-        <v>-10.05854406052616</v>
+        <v>-10.06</v>
       </c>
       <c r="G338">
-        <v>102.6347362121941</v>
+        <v>102.63</v>
       </c>
     </row>
     <row r="339">
@@ -9319,10 +9319,10 @@
         <v>14652829568.31</v>
       </c>
       <c r="F340">
-        <v>17.178354696252</v>
+        <v>17.18</v>
       </c>
       <c r="G340">
-        <v>117.178354696252</v>
+        <v>117.18</v>
       </c>
     </row>
     <row r="341">
@@ -9346,10 +9346,10 @@
         <v>13168881997.51</v>
       </c>
       <c r="F341">
-        <v>-10.12737890577371</v>
+        <v>-10.13</v>
       </c>
       <c r="G341">
-        <v>105.3112587206111</v>
+        <v>105.31</v>
       </c>
     </row>
     <row r="342">
@@ -9397,10 +9397,10 @@
         <v>43342917.33</v>
       </c>
       <c r="F343">
-        <v>-57.76346706632756</v>
+        <v>-57.76</v>
       </c>
       <c r="G343">
-        <v>42.23653293367244</v>
+        <v>42.24</v>
       </c>
     </row>
     <row r="344">
@@ -9424,10 +9424,10 @@
         <v>376495168.4</v>
       </c>
       <c r="F344">
-        <v>768.6428869876904</v>
+        <v>768.64</v>
       </c>
       <c r="G344">
-        <v>366.8846390385589</v>
+        <v>366.88</v>
       </c>
     </row>
     <row r="345">
@@ -9451,10 +9451,10 @@
         <v>360291631.7</v>
       </c>
       <c r="F345">
-        <v>-4.3037834373441</v>
+        <v>-4.3</v>
       </c>
       <c r="G345">
-        <v>351.0947187094577</v>
+        <v>351.09</v>
       </c>
     </row>
     <row r="346">
@@ -9478,10 +9478,10 @@
         <v>384433204.32</v>
       </c>
       <c r="F346">
-        <v>6.700564347301219</v>
+        <v>6.7</v>
       </c>
       <c r="G346">
-        <v>374.6200462565611</v>
+        <v>374.62</v>
       </c>
     </row>
     <row r="347">
@@ -9529,10 +9529,10 @@
         <v>93382933028.83</v>
       </c>
       <c r="F348">
-        <v>1.057713725866405</v>
+        <v>1.06</v>
       </c>
       <c r="G348">
-        <v>101.0577137258664</v>
+        <v>101.06</v>
       </c>
     </row>
     <row r="349">
@@ -9556,10 +9556,10 @@
         <v>94758735397.78999</v>
       </c>
       <c r="F349">
-        <v>1.473291022606071</v>
+        <v>1.47</v>
       </c>
       <c r="G349">
-        <v>102.5465879498405</v>
+        <v>102.55</v>
       </c>
     </row>
     <row r="350">
@@ -9583,10 +9583,10 @@
         <v>101622699367.38</v>
       </c>
       <c r="F350">
-        <v>7.243621330292771</v>
+        <v>7.24</v>
       </c>
       <c r="G350">
-        <v>109.9746744680626</v>
+        <v>109.97</v>
       </c>
     </row>
     <row r="351">
@@ -9610,10 +9610,10 @@
         <v>94657422810.13</v>
       </c>
       <c r="F351">
-        <v>-6.854055836550421</v>
+        <v>-6.85</v>
       </c>
       <c r="G351">
-        <v>102.436948873957</v>
+        <v>102.44</v>
       </c>
     </row>
     <row r="352">
@@ -9661,10 +9661,10 @@
         <v>7947302757.86</v>
       </c>
       <c r="F353">
-        <v>-5.221370780426781</v>
+        <v>-5.22</v>
       </c>
       <c r="G353">
-        <v>94.77862921957322</v>
+        <v>94.78</v>
       </c>
     </row>
     <row r="354">
@@ -9688,10 +9688,10 @@
         <v>7900488100.33</v>
       </c>
       <c r="F354">
-        <v>-0.5890634716753329</v>
+        <v>-0.59</v>
       </c>
       <c r="G354">
-        <v>94.22032293588612</v>
+        <v>94.22</v>
       </c>
     </row>
     <row r="355">
@@ -9715,10 +9715,10 @@
         <v>10125958563.71</v>
       </c>
       <c r="F355">
-        <v>28.16877179129025</v>
+        <v>28.17</v>
       </c>
       <c r="G355">
-        <v>120.7610306847126</v>
+        <v>120.76</v>
       </c>
     </row>
     <row r="356">
@@ -9742,10 +9742,10 @@
         <v>9315274838.27</v>
       </c>
       <c r="F356">
-        <v>-8.005994892625512</v>
+        <v>-8.01</v>
       </c>
       <c r="G356">
-        <v>111.0929087358125</v>
+        <v>111.09</v>
       </c>
     </row>
     <row r="357">
@@ -9793,10 +9793,10 @@
         <v>14230960072.93</v>
       </c>
       <c r="F358">
-        <v>-4.751063549329748</v>
+        <v>-4.75</v>
       </c>
       <c r="G358">
-        <v>95.24893645067026</v>
+        <v>95.25</v>
       </c>
     </row>
     <row r="359">
@@ -9820,10 +9820,10 @@
         <v>14124115786.76</v>
       </c>
       <c r="F359">
-        <v>-0.7507876181399586</v>
+        <v>-0.75</v>
       </c>
       <c r="G359">
-        <v>94.53381922938863</v>
+        <v>94.53</v>
       </c>
     </row>
     <row r="360">
@@ -9847,10 +9847,10 @@
         <v>15869053968.43</v>
       </c>
       <c r="F360">
-        <v>12.35431801901334</v>
+        <v>12.35</v>
       </c>
       <c r="G360">
-        <v>106.2128278925065</v>
+        <v>106.21</v>
       </c>
     </row>
     <row r="361">
@@ -9874,10 +9874,10 @@
         <v>15244963301.14</v>
       </c>
       <c r="F361">
-        <v>-3.932752818987006</v>
+        <v>-3.93</v>
       </c>
       <c r="G361">
-        <v>102.0357399094381</v>
+        <v>102.04</v>
       </c>
     </row>
     <row r="362">
@@ -9925,10 +9925,10 @@
         <v>14539141100.06</v>
       </c>
       <c r="F363">
-        <v>13297.99679486148</v>
+        <v>13298</v>
       </c>
       <c r="G363">
-        <v>13397.99679486148</v>
+        <v>13398</v>
       </c>
     </row>
     <row r="364">
@@ -9952,10 +9952,10 @@
         <v>12738650131.27</v>
       </c>
       <c r="F364">
-        <v>-12.38375056957504</v>
+        <v>-12.38</v>
       </c>
       <c r="G364">
-        <v>11738.82229046617</v>
+        <v>11738.82</v>
       </c>
     </row>
     <row r="365">
@@ -9979,10 +9979,10 @@
         <v>8958086607.67</v>
       </c>
       <c r="F365">
-        <v>-29.67789745885022</v>
+        <v>-29.68</v>
       </c>
       <c r="G365">
-        <v>8254.986648224971</v>
+        <v>8254.99</v>
       </c>
     </row>
     <row r="366">
@@ -10006,10 +10006,10 @@
         <v>1785978541.02</v>
       </c>
       <c r="F366">
-        <v>-80.06294626030041</v>
+        <v>-80.06</v>
       </c>
       <c r="G366">
-        <v>1645.801124261639</v>
+        <v>1645.8</v>
       </c>
     </row>
     <row r="367">
@@ -10057,10 +10057,10 @@
         <v>121459667886.08</v>
       </c>
       <c r="F368">
-        <v>8.969747814806261</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="G368">
-        <v>108.9697478148063</v>
+        <v>108.97</v>
       </c>
     </row>
     <row r="369">
@@ -10084,10 +10084,10 @@
         <v>112944405068.36</v>
       </c>
       <c r="F369">
-        <v>-7.010774000886178</v>
+        <v>-7.01</v>
       </c>
       <c r="G369">
-        <v>101.3301250661746</v>
+        <v>101.33</v>
       </c>
     </row>
     <row r="370">
@@ -10111,10 +10111,10 @@
         <v>131665502759.78</v>
       </c>
       <c r="F370">
-        <v>16.57549807809337</v>
+        <v>16.58</v>
       </c>
       <c r="G370">
-        <v>118.126097999048</v>
+        <v>118.13</v>
       </c>
     </row>
     <row r="371">
@@ -10138,10 +10138,10 @@
         <v>127059399417.34</v>
       </c>
       <c r="F371">
-        <v>-3.498337260629092</v>
+        <v>-3.5</v>
       </c>
       <c r="G371">
-        <v>113.99364869822</v>
+        <v>113.99</v>
       </c>
     </row>
     <row r="372">
@@ -10189,10 +10189,10 @@
         <v>1490302516.53</v>
       </c>
       <c r="F373">
-        <v>6.987731113826823</v>
+        <v>6.99</v>
       </c>
       <c r="G373">
-        <v>106.9877311138268</v>
+        <v>106.99</v>
       </c>
     </row>
     <row r="374">
@@ -10216,10 +10216,10 @@
         <v>1447570832.79</v>
       </c>
       <c r="F374">
-        <v>-2.86731608287798</v>
+        <v>-2.87</v>
       </c>
       <c r="G374">
-        <v>103.9200546928938</v>
+        <v>103.92</v>
       </c>
     </row>
     <row r="375">
@@ -10243,10 +10243,10 @@
         <v>1727214809.64</v>
       </c>
       <c r="F375">
-        <v>19.31815497491225</v>
+        <v>19.32</v>
       </c>
       <c r="G375">
-        <v>123.9954919084806</v>
+        <v>124</v>
       </c>
     </row>
     <row r="376">
@@ -10270,10 +10270,10 @@
         <v>1837579819.59</v>
       </c>
       <c r="F376">
-        <v>6.389767464592477</v>
+        <v>6.39</v>
       </c>
       <c r="G376">
-        <v>131.9185155080101</v>
+        <v>131.92</v>
       </c>
     </row>
     <row r="377">
@@ -10321,10 +10321,10 @@
         <v>1438764357.95</v>
       </c>
       <c r="F378">
-        <v>6.542251682890043</v>
+        <v>6.54</v>
       </c>
       <c r="G378">
-        <v>106.54225168289</v>
+        <v>106.54</v>
       </c>
     </row>
     <row r="379">
@@ -10348,10 +10348,10 @@
         <v>1471022961.28</v>
       </c>
       <c r="F379">
-        <v>2.242104702674386</v>
+        <v>2.24</v>
       </c>
       <c r="G379">
-        <v>108.9310405182073</v>
+        <v>108.93</v>
       </c>
     </row>
     <row r="380">
@@ -10375,10 +10375,10 @@
         <v>1737285748.72</v>
       </c>
       <c r="F380">
-        <v>18.1005187851258</v>
+        <v>18.1</v>
       </c>
       <c r="G380">
-        <v>128.6481239700384</v>
+        <v>128.65</v>
       </c>
     </row>
     <row r="381">
@@ -10402,10 +10402,10 @@
         <v>1761752645.89</v>
       </c>
       <c r="F381">
-        <v>1.408340406178255</v>
+        <v>1.41</v>
       </c>
       <c r="G381">
-        <v>130.4599274816987</v>
+        <v>130.46</v>
       </c>
     </row>
     <row r="382">
@@ -10453,10 +10453,10 @@
         <v>656478511.75</v>
       </c>
       <c r="F383">
-        <v>-20.94715554674813</v>
+        <v>-20.95</v>
       </c>
       <c r="G383">
-        <v>79.05284445325186</v>
+        <v>79.05</v>
       </c>
     </row>
     <row r="384">
@@ -10480,10 +10480,10 @@
         <v>688487906.22</v>
       </c>
       <c r="F384">
-        <v>4.875924176812951</v>
+        <v>4.88</v>
       </c>
       <c r="G384">
-        <v>82.90740120840631</v>
+        <v>82.91</v>
       </c>
     </row>
     <row r="385">
@@ -10507,10 +10507,10 @@
         <v>798744172.09</v>
       </c>
       <c r="F385">
-        <v>16.0142632679402</v>
+        <v>16.01</v>
       </c>
       <c r="G385">
-        <v>96.18441070652793</v>
+        <v>96.18000000000001</v>
       </c>
     </row>
     <row r="386">
@@ -10534,10 +10534,10 @@
         <v>659425081.53</v>
       </c>
       <c r="F386">
-        <v>-17.44226692702579</v>
+        <v>-17.44</v>
       </c>
       <c r="G386">
-        <v>79.40766904890856</v>
+        <v>79.41</v>
       </c>
     </row>
     <row r="387">
@@ -10585,10 +10585,10 @@
         <v>13925705403.87</v>
       </c>
       <c r="F388">
-        <v>3.885380138855887</v>
+        <v>3.89</v>
       </c>
       <c r="G388">
-        <v>103.8853801388559</v>
+        <v>103.89</v>
       </c>
     </row>
     <row r="389">
@@ -10612,10 +10612,10 @@
         <v>14763099954.25</v>
       </c>
       <c r="F389">
-        <v>6.013300770726371</v>
+        <v>6.01</v>
       </c>
       <c r="G389">
-        <v>110.1323205034177</v>
+        <v>110.13</v>
       </c>
     </row>
     <row r="390">
@@ -10639,10 +10639,10 @@
         <v>15768941669.08</v>
       </c>
       <c r="F390">
-        <v>6.81321482579571</v>
+        <v>6.81</v>
       </c>
       <c r="G390">
-        <v>117.6358720919494</v>
+        <v>117.64</v>
       </c>
     </row>
     <row r="391">
@@ -10666,10 +10666,10 @@
         <v>17445086594.76</v>
       </c>
       <c r="F391">
-        <v>10.62940659465188</v>
+        <v>10.63</v>
       </c>
       <c r="G391">
-        <v>130.1398672377674</v>
+        <v>130.14</v>
       </c>
     </row>
     <row r="392">
@@ -10717,10 +10717,10 @@
         <v>591360171.95</v>
       </c>
       <c r="F393">
-        <v>-43.99464620722661</v>
+        <v>-43.99</v>
       </c>
       <c r="G393">
-        <v>56.00535379277339</v>
+        <v>56.01</v>
       </c>
     </row>
     <row r="394">
@@ -10744,10 +10744,10 @@
         <v>762172006.6799999</v>
       </c>
       <c r="F394">
-        <v>28.8845686321334</v>
+        <v>28.88</v>
       </c>
       <c r="G394">
-        <v>72.18225864671615</v>
+        <v>72.18000000000001</v>
       </c>
     </row>
     <row r="395">
@@ -10771,10 +10771,10 @@
         <v>967771310.08</v>
       </c>
       <c r="F395">
-        <v>26.97544669681389</v>
+        <v>26.98</v>
       </c>
       <c r="G395">
-        <v>91.6537453525174</v>
+        <v>91.65000000000001</v>
       </c>
     </row>
     <row r="396">
@@ -10798,10 +10798,10 @@
         <v>1142824830.67</v>
       </c>
       <c r="F396">
-        <v>18.08831474612833</v>
+        <v>18.09</v>
       </c>
       <c r="G396">
-        <v>108.2323632884957</v>
+        <v>108.23</v>
       </c>
     </row>
     <row r="397">
@@ -10849,10 +10849,10 @@
         <v>459750736.5</v>
       </c>
       <c r="F398">
-        <v>44.0399081178132</v>
+        <v>44.04</v>
       </c>
       <c r="G398">
-        <v>144.0399081178132</v>
+        <v>144.04</v>
       </c>
     </row>
     <row r="399">
@@ -10876,10 +10876,10 @@
         <v>450774254.23</v>
       </c>
       <c r="F399">
-        <v>-1.952467186531626</v>
+        <v>-1.95</v>
       </c>
       <c r="G399">
-        <v>141.2275761763026</v>
+        <v>141.23</v>
       </c>
     </row>
     <row r="400">
@@ -10927,10 +10927,10 @@
         <v>3588788.78</v>
       </c>
       <c r="F401">
-        <v>1201.464558370657</v>
+        <v>1201.46</v>
       </c>
       <c r="G401">
-        <v>1301.464558370657</v>
+        <v>1301.46</v>
       </c>
     </row>
     <row r="402">
@@ -10978,10 +10978,10 @@
         <v>6829648305.05</v>
       </c>
       <c r="F403">
-        <v>17.31474806720383</v>
+        <v>17.31</v>
       </c>
       <c r="G403">
-        <v>117.3147480672038</v>
+        <v>117.31</v>
       </c>
     </row>
     <row r="404">
@@ -11005,10 +11005,10 @@
         <v>6792148526.26</v>
       </c>
       <c r="F404">
-        <v>-0.5490733507063861</v>
+        <v>-0.55</v>
       </c>
       <c r="G404">
-        <v>116.6706040491185</v>
+        <v>116.67</v>
       </c>
     </row>
     <row r="405">
@@ -11032,10 +11032,10 @@
         <v>7627834163.26</v>
       </c>
       <c r="F405">
-        <v>12.30370086533073</v>
+        <v>12.3</v>
       </c>
       <c r="G405">
-        <v>131.0254061690965</v>
+        <v>131.03</v>
       </c>
     </row>
     <row r="406">
@@ -11059,10 +11059,10 @@
         <v>8669291431.110001</v>
       </c>
       <c r="F406">
-        <v>13.65338109821859</v>
+        <v>13.65</v>
       </c>
       <c r="G406">
-        <v>148.914804208852</v>
+        <v>148.91</v>
       </c>
     </row>
     <row r="407">
@@ -11110,10 +11110,10 @@
         <v>5031667594.05</v>
       </c>
       <c r="F408">
-        <v>5.999351304334444</v>
+        <v>6</v>
       </c>
       <c r="G408">
-        <v>105.9993513043344</v>
+        <v>106</v>
       </c>
     </row>
     <row r="409">
@@ -11137,10 +11137,10 @@
         <v>4875097108.28</v>
       </c>
       <c r="F409">
-        <v>-3.111701694188751</v>
+        <v>-3.11</v>
       </c>
       <c r="G409">
-        <v>102.7009676939684</v>
+        <v>102.7</v>
       </c>
     </row>
     <row r="410">
@@ -11164,10 +11164,10 @@
         <v>5421401175.28</v>
       </c>
       <c r="F410">
-        <v>11.20601405194868</v>
+        <v>11.21</v>
       </c>
       <c r="G410">
-        <v>114.2096525652418</v>
+        <v>114.21</v>
       </c>
     </row>
     <row r="411">
@@ -11191,10 +11191,10 @@
         <v>6152443799.52</v>
       </c>
       <c r="F411">
-        <v>13.48438532041016</v>
+        <v>13.48</v>
       </c>
       <c r="G411">
-        <v>129.6101221902407</v>
+        <v>129.61</v>
       </c>
     </row>
     <row r="412">
@@ -11242,10 +11242,10 @@
         <v>8614245364.82</v>
       </c>
       <c r="F413">
-        <v>6.072005796246605</v>
+        <v>6.07</v>
       </c>
       <c r="G413">
-        <v>106.0720057962466</v>
+        <v>106.07</v>
       </c>
     </row>
     <row r="414">
@@ -11269,10 +11269,10 @@
         <v>8323020816.69</v>
       </c>
       <c r="F414">
-        <v>-3.380731982854146</v>
+        <v>-3.38</v>
       </c>
       <c r="G414">
-        <v>102.485995571438</v>
+        <v>102.49</v>
       </c>
     </row>
     <row r="415">
@@ -11296,10 +11296,10 @@
         <v>9012987689.41</v>
       </c>
       <c r="F415">
-        <v>8.289861192422144</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="G415">
-        <v>110.9819423459821</v>
+        <v>110.98</v>
       </c>
     </row>
     <row r="416">
@@ -11323,10 +11323,10 @@
         <v>10322053073.91</v>
       </c>
       <c r="F416">
-        <v>14.52421138928342</v>
+        <v>14.52</v>
       </c>
       <c r="G416">
-        <v>127.1011942562452</v>
+        <v>127.1</v>
       </c>
     </row>
     <row r="417">
@@ -11374,10 +11374,10 @@
         <v>25212108.42</v>
       </c>
       <c r="F418">
-        <v>-52.96875375798202</v>
+        <v>-52.97</v>
       </c>
       <c r="G418">
-        <v>47.03124624201798</v>
+        <v>47.03</v>
       </c>
     </row>
     <row r="419">
@@ -11401,10 +11401,10 @@
         <v>66970448.67</v>
       </c>
       <c r="F419">
-        <v>165.6281162779483</v>
+        <v>165.63</v>
       </c>
       <c r="G419">
-        <v>124.9282134547157</v>
+        <v>124.93</v>
       </c>
     </row>
     <row r="420">
@@ -11428,10 +11428,10 @@
         <v>35660621.39</v>
       </c>
       <c r="F420">
-        <v>-46.75170601630673</v>
+        <v>-46.75</v>
       </c>
       <c r="G420">
-        <v>66.52214236894287</v>
+        <v>66.52</v>
       </c>
     </row>
     <row r="421">
@@ -11455,10 +11455,10 @@
         <v>38372188.3</v>
       </c>
       <c r="F421">
-        <v>7.603812845393598</v>
+        <v>7.6</v>
       </c>
       <c r="G421">
-        <v>71.58036157542357</v>
+        <v>71.58</v>
       </c>
     </row>
     <row r="422">
@@ -11506,10 +11506,10 @@
         <v>47985922581.29</v>
       </c>
       <c r="F423">
-        <v>5.20150733422402</v>
+        <v>5.2</v>
       </c>
       <c r="G423">
-        <v>105.201507334224</v>
+        <v>105.2</v>
       </c>
     </row>
     <row r="424">
@@ -11533,10 +11533,10 @@
         <v>48138258123.64</v>
       </c>
       <c r="F424">
-        <v>0.317458817410321</v>
+        <v>0.32</v>
       </c>
       <c r="G424">
-        <v>105.5354787953051</v>
+        <v>105.54</v>
       </c>
     </row>
     <row r="425">
@@ -11560,10 +11560,10 @@
         <v>50605653241.2</v>
       </c>
       <c r="F425">
-        <v>5.125642708597078</v>
+        <v>5.13</v>
       </c>
       <c r="G425">
-        <v>110.9448503691596</v>
+        <v>110.94</v>
       </c>
     </row>
     <row r="426">
@@ -11587,10 +11587,10 @@
         <v>58960692597.32</v>
       </c>
       <c r="F426">
-        <v>16.5100909107875</v>
+        <v>16.51</v>
       </c>
       <c r="G426">
-        <v>129.2619460259451</v>
+        <v>129.26</v>
       </c>
     </row>
     <row r="427">
@@ -11638,10 +11638,10 @@
         <v>1646562807.32</v>
       </c>
       <c r="F428">
-        <v>2.011756153700683</v>
+        <v>2.01</v>
       </c>
       <c r="G428">
-        <v>102.0117561537007</v>
+        <v>102.01</v>
       </c>
     </row>
     <row r="429">
@@ -11665,10 +11665,10 @@
         <v>1525082800.04</v>
       </c>
       <c r="F429">
-        <v>-7.377793713057623</v>
+        <v>-7.38</v>
       </c>
       <c r="G429">
-        <v>94.48553922161328</v>
+        <v>94.48999999999999</v>
       </c>
     </row>
     <row r="430">
@@ -11692,10 +11692,10 @@
         <v>1772512477.26</v>
       </c>
       <c r="F430">
-        <v>16.22401598218211</v>
+        <v>16.22</v>
       </c>
       <c r="G430">
-        <v>109.8148882057788</v>
+        <v>109.81</v>
       </c>
     </row>
     <row r="431">
@@ -11719,10 +11719,10 @@
         <v>1996294325.19</v>
       </c>
       <c r="F431">
-        <v>12.62512116563086</v>
+        <v>12.63</v>
       </c>
       <c r="G431">
-        <v>123.6791508996604</v>
+        <v>123.68</v>
       </c>
     </row>
     <row r="432">
@@ -11770,10 +11770,10 @@
         <v>1209465792.09</v>
       </c>
       <c r="F433">
-        <v>-7.546053750212067</v>
+        <v>-7.55</v>
       </c>
       <c r="G433">
-        <v>92.45394624978793</v>
+        <v>92.45</v>
       </c>
     </row>
     <row r="434">
@@ -11797,10 +11797,10 @@
         <v>1154551013.94</v>
       </c>
       <c r="F434">
-        <v>-4.540415984407886</v>
+        <v>-4.54</v>
       </c>
       <c r="G434">
-        <v>88.2561524960467</v>
+        <v>88.26000000000001</v>
       </c>
     </row>
     <row r="435">
@@ -11824,10 +11824,10 @@
         <v>1256240595.12</v>
       </c>
       <c r="F435">
-        <v>8.807716588717529</v>
+        <v>8.81</v>
       </c>
       <c r="G435">
-        <v>96.02950428000483</v>
+        <v>96.03</v>
       </c>
     </row>
     <row r="436">
@@ -11851,10 +11851,10 @@
         <v>1315071501.75</v>
       </c>
       <c r="F436">
-        <v>4.683092304016845</v>
+        <v>4.68</v>
       </c>
       <c r="G436">
-        <v>100.5266546045273</v>
+        <v>100.53</v>
       </c>
     </row>
     <row r="437">
@@ -11902,10 +11902,10 @@
         <v>5421033.23</v>
       </c>
       <c r="F438">
-        <v>-93.22305915786809</v>
+        <v>-93.22</v>
       </c>
       <c r="G438">
-        <v>6.776940842131907</v>
+        <v>6.78</v>
       </c>
     </row>
     <row r="439">
@@ -11929,10 +11929,10 @@
         <v>6613893.32</v>
       </c>
       <c r="F439">
-        <v>22.00429400429997</v>
+        <v>22</v>
       </c>
       <c r="G439">
-        <v>8.268158829532094</v>
+        <v>8.27</v>
       </c>
     </row>
     <row r="440">
@@ -11956,10 +11956,10 @@
         <v>3352746.02</v>
       </c>
       <c r="F440">
-        <v>-49.30752799018536</v>
+        <v>-49.31</v>
       </c>
       <c r="G440">
-        <v>4.191334100387574</v>
+        <v>4.19</v>
       </c>
     </row>
     <row r="441">
@@ -11983,10 +11983,10 @@
         <v>2937523.89</v>
       </c>
       <c r="F441">
-        <v>-12.38453874892677</v>
+        <v>-12.38</v>
       </c>
       <c r="G441">
-        <v>3.672256704628094</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="442">
@@ -12034,10 +12034,10 @@
         <v>14373680282.13</v>
       </c>
       <c r="F443">
-        <v>2.643143090813238</v>
+        <v>2.64</v>
       </c>
       <c r="G443">
-        <v>102.6431430908132</v>
+        <v>102.64</v>
       </c>
     </row>
     <row r="444">
@@ -12061,10 +12061,10 @@
         <v>14813651439.03</v>
       </c>
       <c r="F444">
-        <v>3.060949932544377</v>
+        <v>3.06</v>
       </c>
       <c r="G444">
-        <v>105.7849983100129</v>
+        <v>105.78</v>
       </c>
     </row>
     <row r="445">
@@ -12088,10 +12088,10 @@
         <v>15373400005.83</v>
       </c>
       <c r="F445">
-        <v>3.778599551257233</v>
+        <v>3.78</v>
       </c>
       <c r="G445">
-        <v>109.7821897814525</v>
+        <v>109.78</v>
       </c>
     </row>
     <row r="446">
@@ -12115,10 +12115,10 @@
         <v>16518282236.45</v>
       </c>
       <c r="F446">
-        <v>7.447163478383634</v>
+        <v>7.45</v>
       </c>
       <c r="G446">
-        <v>117.9578489246267</v>
+        <v>117.96</v>
       </c>
     </row>
     <row r="447">
@@ -12166,10 +12166,10 @@
         <v>313277328500.27</v>
       </c>
       <c r="F448">
-        <v>1.594469672283538</v>
+        <v>1.59</v>
       </c>
       <c r="G448">
-        <v>101.5944696722835</v>
+        <v>101.59</v>
       </c>
     </row>
     <row r="449">
@@ -12193,10 +12193,10 @@
         <v>309911092544.5</v>
       </c>
       <c r="F449">
-        <v>-1.074522683107959</v>
+        <v>-1.07</v>
       </c>
       <c r="G449">
-        <v>100.5028140508716</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="450">
@@ -12220,10 +12220,10 @@
         <v>322818438883.61</v>
       </c>
       <c r="F450">
-        <v>4.164854582369171</v>
+        <v>4.16</v>
       </c>
       <c r="G450">
-        <v>104.6886101072793</v>
+        <v>104.69</v>
       </c>
     </row>
     <row r="451">
@@ -12247,10 +12247,10 @@
         <v>356633215710.19</v>
       </c>
       <c r="F451">
-        <v>10.47485916341095</v>
+        <v>10.47</v>
       </c>
       <c r="G451">
-        <v>115.6545945761492</v>
+        <v>115.65</v>
       </c>
     </row>
     <row r="452">
@@ -12298,10 +12298,10 @@
         <v>1602255693.18</v>
       </c>
       <c r="F453">
-        <v>2.899727569697719</v>
+        <v>2.9</v>
       </c>
       <c r="G453">
-        <v>102.8997275696977</v>
+        <v>102.9</v>
       </c>
     </row>
     <row r="454">
@@ -12325,10 +12325,10 @@
         <v>1543860422.76</v>
       </c>
       <c r="F454">
-        <v>-3.644566261712123</v>
+        <v>-3.64</v>
       </c>
       <c r="G454">
-        <v>99.14947881529883</v>
+        <v>99.15000000000001</v>
       </c>
     </row>
     <row r="455">
@@ -12352,10 +12352,10 @@
         <v>1826970098.74</v>
       </c>
       <c r="F455">
-        <v>18.3377766413545</v>
+        <v>18.34</v>
       </c>
       <c r="G455">
-        <v>117.3312887815154</v>
+        <v>117.33</v>
       </c>
     </row>
     <row r="456">
@@ -12379,10 +12379,10 @@
         <v>2003845201.75</v>
       </c>
       <c r="F456">
-        <v>9.681335405105141</v>
+        <v>9.68</v>
       </c>
       <c r="G456">
-        <v>128.6905243835864</v>
+        <v>128.69</v>
       </c>
     </row>
     <row r="457">
@@ -12430,10 +12430,10 @@
         <v>1063392806</v>
       </c>
       <c r="F458">
-        <v>0.9213784111389733</v>
+        <v>0.92</v>
       </c>
       <c r="G458">
-        <v>100.921378411139</v>
+        <v>100.92</v>
       </c>
     </row>
     <row r="459">
@@ -12457,10 +12457,10 @@
         <v>1119605042.06</v>
       </c>
       <c r="F459">
-        <v>5.28612152939465</v>
+        <v>5.29</v>
       </c>
       <c r="G459">
-        <v>106.256205123092</v>
+        <v>106.26</v>
       </c>
     </row>
     <row r="460">
@@ -12484,10 +12484,10 @@
         <v>1277243555.94</v>
       </c>
       <c r="F460">
-        <v>14.0798324371562</v>
+        <v>14.08</v>
       </c>
       <c r="G460">
-        <v>121.2169007585044</v>
+        <v>121.22</v>
       </c>
     </row>
     <row r="461">
@@ -12511,10 +12511,10 @@
         <v>1325267360.95</v>
       </c>
       <c r="F461">
-        <v>3.759956727646707</v>
+        <v>3.76</v>
       </c>
       <c r="G461">
-        <v>125.7746037736186</v>
+        <v>125.77</v>
       </c>
     </row>
     <row r="462">
@@ -12562,10 +12562,10 @@
         <v>1026574260.1</v>
       </c>
       <c r="F463">
-        <v>-31.25439291183017</v>
+        <v>-31.25</v>
       </c>
       <c r="G463">
-        <v>68.74560708816983</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="464">
@@ -12589,10 +12589,10 @@
         <v>1250338392.53</v>
       </c>
       <c r="F464">
-        <v>21.79716958890074</v>
+        <v>21.8</v>
       </c>
       <c r="G464">
-        <v>83.73020365009759</v>
+        <v>83.73</v>
       </c>
     </row>
     <row r="465">
@@ -12616,10 +12616,10 @@
         <v>2138495111.76</v>
       </c>
       <c r="F465">
-        <v>71.03330782580043</v>
+        <v>71.03</v>
       </c>
       <c r="G465">
-        <v>143.206536952041</v>
+        <v>143.21</v>
       </c>
     </row>
     <row r="466">
@@ -12643,10 +12643,10 @@
         <v>2414557756.05</v>
       </c>
       <c r="F466">
-        <v>12.90920155823028</v>
+        <v>12.91</v>
       </c>
       <c r="G466">
-        <v>161.6933574517415</v>
+        <v>161.69</v>
       </c>
     </row>
     <row r="467">
@@ -12694,10 +12694,10 @@
         <v>14761920486.77</v>
       </c>
       <c r="F468">
-        <v>2.944614120272671</v>
+        <v>2.94</v>
       </c>
       <c r="G468">
-        <v>102.9446141202727</v>
+        <v>102.94</v>
       </c>
     </row>
     <row r="469">
@@ -12721,10 +12721,10 @@
         <v>16442002965.67</v>
       </c>
       <c r="F469">
-        <v>11.38119176570374</v>
+        <v>11.38</v>
       </c>
       <c r="G469">
-        <v>114.6609380657646</v>
+        <v>114.66</v>
       </c>
     </row>
     <row r="470">
@@ -12748,10 +12748,10 @@
         <v>18157412743.27</v>
       </c>
       <c r="F470">
-        <v>10.43309492877287</v>
+        <v>10.43</v>
       </c>
       <c r="G470">
-        <v>126.6236225803873</v>
+        <v>126.62</v>
       </c>
     </row>
     <row r="471">
@@ -12775,10 +12775,10 @@
         <v>20761546546.64</v>
       </c>
       <c r="F471">
-        <v>14.34198715527473</v>
+        <v>14.34</v>
       </c>
       <c r="G471">
-        <v>144.78396626641</v>
+        <v>144.78</v>
       </c>
     </row>
   </sheetData>
